--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业管理费用.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业管理费用.xlsx
@@ -2234,7 +2234,7 @@
         <v>13.62</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1.759999999999991</v>
       </c>
       <c r="I4" t="n">
         <v>22.69</v>
@@ -2270,7 +2270,7 @@
         <v>4.53</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>3.520000000000007</v>
       </c>
       <c r="U4" t="n">
         <v>16.51</v>
@@ -2279,7 +2279,7 @@
         <v>-7.22</v>
       </c>
       <c r="W4" t="n">
-        <v>12.89</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="X4" t="n">
         <v>53.8</v>
@@ -2342,7 +2342,7 @@
         <v>8.51</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.140000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="AS4" t="n">
         <v>39.85</v>
@@ -2351,7 +2351,7 @@
         <v>0.7</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.19</v>
+        <v>1.91</v>
       </c>
       <c r="AV4" t="n">
         <v>12.06</v>
@@ -2369,7 +2369,7 @@
         <v>10.67</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.3299999999999998</v>
+        <v>0.2899999999999998</v>
       </c>
       <c r="BB4" t="n">
         <v>7.99</v>
@@ -2378,7 +2378,7 @@
         <v>7.88</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.140000000000001</v>
+        <v>2.060000000000005</v>
       </c>
       <c r="BE4" t="n">
         <v>8.550000000000001</v>
@@ -2387,7 +2387,7 @@
         <v>-5.37</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.129999999999999</v>
+        <v>0.009999999999994447</v>
       </c>
       <c r="BH4" t="n">
         <v>14.3</v>
@@ -2405,7 +2405,7 @@
         <v>18.99</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.09</v>
+        <v>0.8100000000000041</v>
       </c>
       <c r="BN4" t="n">
         <v>5.85</v>
@@ -2414,7 +2414,7 @@
         <v>-2.62</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.53999999999999</v>
+        <v>0.07999999999996787</v>
       </c>
       <c r="BQ4" t="n">
         <v>68.66</v>
@@ -2423,7 +2423,7 @@
         <v>16.03</v>
       </c>
       <c r="BS4" t="n">
-        <v>14.60000000000001</v>
+        <v>12.24000000000001</v>
       </c>
       <c r="BT4" t="n">
         <v>63.19</v>
@@ -2531,7 +2531,7 @@
         <v>4.66</v>
       </c>
       <c r="DC4" t="n">
-        <v>5.399999999999999</v>
+        <v>4.079999999999991</v>
       </c>
       <c r="DD4" t="n">
         <v>26.41</v>
@@ -2558,7 +2558,7 @@
         <v>0.39</v>
       </c>
       <c r="DL4" t="n">
-        <v>3.170000000000012</v>
+        <v>0.6200000000000219</v>
       </c>
       <c r="DM4" t="n">
         <v>106.09</v>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.30000000000002</v>
+        <v>0.1400000000000501</v>
       </c>
       <c r="C5" t="n">
         <v>74.95</v>
@@ -2712,7 +2712,7 @@
         <v>6.38</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7600000000000193</v>
+        <v>0.06000000000002359</v>
       </c>
       <c r="F5" t="n">
         <v>187.96</v>
@@ -2739,7 +2739,7 @@
         <v>6.17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03</v>
+        <v>0.009999999999999979</v>
       </c>
       <c r="O5" t="n">
         <v>0.15</v>
@@ -2748,7 +2748,7 @@
         <v>25.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.340000000000011</v>
+        <v>1.420000000000016</v>
       </c>
       <c r="R5" t="n">
         <v>163.77</v>
@@ -2775,7 +2775,7 @@
         <v>13.99</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.209999999999997</v>
+        <v>1.929999999999993</v>
       </c>
       <c r="AA5" t="n">
         <v>23.01</v>
@@ -2793,7 +2793,7 @@
         <v>13.36</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1700000000000002</v>
+        <v>0.1300000000000002</v>
       </c>
       <c r="AG5" t="n">
         <v>6.98</v>
@@ -2802,7 +2802,7 @@
         <v>15.48</v>
       </c>
       <c r="AI5" t="n">
-        <v>46.31999999999994</v>
+        <v>4.049999999999338</v>
       </c>
       <c r="AJ5" t="n">
         <v>2097.58</v>
@@ -2838,7 +2838,7 @@
         <v>-0.7</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.92</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="AV5" t="n">
         <v>15.64</v>
@@ -2847,7 +2847,7 @@
         <v>5.95</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.079999999999995</v>
+        <v>0.9999999999999829</v>
       </c>
       <c r="AY5" t="n">
         <v>42.79</v>
@@ -2856,7 +2856,7 @@
         <v>12.03</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.17</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BB5" t="n">
         <v>10.38</v>
@@ -2901,7 +2901,7 @@
         <v>4.12</v>
       </c>
       <c r="BP5" t="n">
-        <v>16.69</v>
+        <v>14.18000000000009</v>
       </c>
       <c r="BQ5" t="n">
         <v>88.03</v>
@@ -2928,7 +2928,7 @@
         <v>27.77</v>
       </c>
       <c r="BY5" t="n">
-        <v>3.200000000000021</v>
+        <v>0.2400000000000695</v>
       </c>
       <c r="BZ5" t="n">
         <v>115.33</v>
@@ -2955,7 +2955,7 @@
         <v>3.64</v>
       </c>
       <c r="CH5" t="n">
-        <v>9.110000000000001</v>
+        <v>2.340000000000002</v>
       </c>
       <c r="CI5" t="n">
         <v>50.12</v>
@@ -2964,7 +2964,7 @@
         <v>43.34</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.5800000000000196</v>
+        <v>0.2800000000000295</v>
       </c>
       <c r="CL5" t="n">
         <v>93.08</v>
@@ -2973,7 +2973,7 @@
         <v>-1.24</v>
       </c>
       <c r="CN5" t="n">
-        <v>1.249999999999998</v>
+        <v>0.1099999999999956</v>
       </c>
       <c r="CO5" t="n">
         <v>21.42</v>
@@ -2991,7 +2991,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="CT5" t="n">
-        <v>10.35</v>
+        <v>5.789999999999997</v>
       </c>
       <c r="CU5" t="n">
         <v>50.68</v>
@@ -3000,7 +3000,7 @@
         <v>9.69</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.4299999999999891</v>
+        <v>0.13999999999999</v>
       </c>
       <c r="CX5" t="n">
         <v>95.65000000000001</v>
@@ -3009,7 +3009,7 @@
         <v>4.03</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.3699999999999988</v>
+        <v>0.08999999999999761</v>
       </c>
       <c r="DA5" t="n">
         <v>11.08</v>
@@ -3027,7 +3027,7 @@
         <v>7.85</v>
       </c>
       <c r="DF5" t="n">
-        <v>10.07</v>
+        <v>4.669999999999995</v>
       </c>
       <c r="DG5" t="n">
         <v>50.28</v>
@@ -3036,7 +3036,7 @@
         <v>2.14</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.830000000000004</v>
+        <v>0.6700000000000359</v>
       </c>
       <c r="DJ5" t="n">
         <v>45.63</v>
@@ -3045,7 +3045,7 @@
         <v>0.67</v>
       </c>
       <c r="DL5" t="n">
-        <v>2.589999999999989</v>
+        <v>0.7299999999999232</v>
       </c>
       <c r="DM5" t="n">
         <v>137.28</v>
@@ -3054,7 +3054,7 @@
         <v>22.01</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.07999999999999988</v>
       </c>
       <c r="DP5" t="n">
         <v>5.14</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.42999999999999</v>
+        <v>8.54999999999985</v>
       </c>
       <c r="C6" t="n">
         <v>91.55</v>
@@ -3199,7 +3199,7 @@
         <v>4.35</v>
       </c>
       <c r="E6" t="n">
-        <v>35.87</v>
+        <v>34.92999999999989</v>
       </c>
       <c r="F6" t="n">
         <v>227.41</v>
@@ -3208,7 +3208,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>4.890000000000001</v>
+        <v>1.689999999999997</v>
       </c>
       <c r="I6" t="n">
         <v>34.45</v>
@@ -3217,7 +3217,7 @@
         <v>12.84</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1099999999999959</v>
+        <v>0.03999999999999385</v>
       </c>
       <c r="L6" t="n">
         <v>21.08</v>
@@ -3226,7 +3226,7 @@
         <v>7.08</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01000000000000001</v>
+        <v>3.122502256758253e-17</v>
       </c>
       <c r="O6" t="n">
         <v>0.19</v>
@@ -3235,7 +3235,7 @@
         <v>23.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.56</v>
+        <v>24.95999999999994</v>
       </c>
       <c r="R6" t="n">
         <v>197.9</v>
@@ -3244,7 +3244,7 @@
         <v>1.35</v>
       </c>
       <c r="T6" t="n">
-        <v>4.990000000000002</v>
+        <v>1.149999999999998</v>
       </c>
       <c r="U6" t="n">
         <v>25.73</v>
@@ -3253,7 +3253,7 @@
         <v>-7.14</v>
       </c>
       <c r="W6" t="n">
-        <v>12.59</v>
+        <v>6.070000000000004</v>
       </c>
       <c r="X6" t="n">
         <v>85.44</v>
@@ -3271,7 +3271,7 @@
         <v>3.31</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.880000000000003</v>
+        <v>5.240000000000031</v>
       </c>
       <c r="AD6" t="n">
         <v>45.95</v>
@@ -3280,7 +3280,7 @@
         <v>14.14</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.33</v>
+        <v>0.7099999999999994</v>
       </c>
       <c r="AG6" t="n">
         <v>8.619999999999999</v>
@@ -3289,7 +3289,7 @@
         <v>16.33</v>
       </c>
       <c r="AI6" t="n">
-        <v>418.6700000000001</v>
+        <v>317.9300000000015</v>
       </c>
       <c r="AJ6" t="n">
         <v>2565.63</v>
@@ -3298,7 +3298,7 @@
         <v>9.15</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.879999999999999</v>
+        <v>1.759999999999995</v>
       </c>
       <c r="AM6" t="n">
         <v>17.23</v>
@@ -3307,7 +3307,7 @@
         <v>4.34</v>
       </c>
       <c r="AO6" t="n">
-        <v>21.27</v>
+        <v>17.63</v>
       </c>
       <c r="AP6" t="n">
         <v>133.52</v>
@@ -3316,7 +3316,7 @@
         <v>9.77</v>
       </c>
       <c r="AR6" t="n">
-        <v>9.280000000000001</v>
+        <v>1.280000000000001</v>
       </c>
       <c r="AS6" t="n">
         <v>56.21</v>
@@ -3325,7 +3325,7 @@
         <v>-6.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.2900000000000009</v>
+        <v>0.1900000000000013</v>
       </c>
       <c r="AV6" t="n">
         <v>19.2</v>
@@ -3334,7 +3334,7 @@
         <v>8.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.670000000000002</v>
+        <v>4.470000000000041</v>
       </c>
       <c r="AY6" t="n">
         <v>52.72</v>
@@ -3352,7 +3352,7 @@
         <v>6.85</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.5</v>
+        <v>0.980000000000004</v>
       </c>
       <c r="BE6" t="n">
         <v>11.93</v>
@@ -3361,7 +3361,7 @@
         <v>-12.92</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.509999999999998</v>
+        <v>3.389999999999994</v>
       </c>
       <c r="BH6" t="n">
         <v>22.59</v>
@@ -3370,7 +3370,7 @@
         <v>10.27</v>
       </c>
       <c r="BJ6" t="n">
-        <v>5.18</v>
+        <v>4.419999999999995</v>
       </c>
       <c r="BK6" t="n">
         <v>34.79</v>
@@ -3397,7 +3397,7 @@
         <v>14.18</v>
       </c>
       <c r="BS6" t="n">
-        <v>12.16</v>
+        <v>5.740000000000011</v>
       </c>
       <c r="BT6" t="n">
         <v>99.95</v>
@@ -3406,7 +3406,7 @@
         <v>7.4</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.199999999999982</v>
+        <v>0.9399999999999731</v>
       </c>
       <c r="BW6" t="n">
         <v>185.07</v>
@@ -3415,7 +3415,7 @@
         <v>25.88</v>
       </c>
       <c r="BY6" t="n">
-        <v>24.18000000000001</v>
+        <v>15.81999999999986</v>
       </c>
       <c r="BZ6" t="n">
         <v>143.56</v>
@@ -3424,7 +3424,7 @@
         <v>10.3</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.1999999999999988</v>
+        <v>0.01999999999999591</v>
       </c>
       <c r="CC6" t="n">
         <v>23.32</v>
@@ -3442,7 +3442,7 @@
         <v>1.07</v>
       </c>
       <c r="CH6" t="n">
-        <v>10.63</v>
+        <v>1.52</v>
       </c>
       <c r="CI6" t="n">
         <v>68.44</v>
@@ -3460,7 +3460,7 @@
         <v>-1.55</v>
       </c>
       <c r="CN6" t="n">
-        <v>3.240000000000002</v>
+        <v>0.5200000000000149</v>
       </c>
       <c r="CO6" t="n">
         <v>26.25</v>
@@ -3469,7 +3469,7 @@
         <v>4.9</v>
       </c>
       <c r="CQ6" t="n">
-        <v>6.399999999999999</v>
+        <v>6.039999999999985</v>
       </c>
       <c r="CR6" t="n">
         <v>42.02</v>
@@ -3487,7 +3487,7 @@
         <v>9.58</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.5500000000000007</v>
+        <v>0.1200000000000116</v>
       </c>
       <c r="CX6" t="n">
         <v>118.19</v>
@@ -3496,7 +3496,7 @@
         <v>5.51</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.31</v>
+        <v>1.250000000000007</v>
       </c>
       <c r="DA6" t="n">
         <v>13.79</v>
@@ -3505,7 +3505,7 @@
         <v>3.88</v>
       </c>
       <c r="DC6" t="n">
-        <v>6.469999999999999</v>
+        <v>0.3799999999999839</v>
       </c>
       <c r="DD6" t="n">
         <v>39.56</v>
@@ -3514,7 +3514,7 @@
         <v>5.93</v>
       </c>
       <c r="DF6" t="n">
-        <v>9.770000000000003</v>
+        <v>1.050000000000004</v>
       </c>
       <c r="DG6" t="n">
         <v>60.19</v>
@@ -3523,7 +3523,7 @@
         <v>1.53</v>
       </c>
       <c r="DI6" t="n">
-        <v>9.189999999999991</v>
+        <v>3.609999999999928</v>
       </c>
       <c r="DJ6" t="n">
         <v>57.13</v>
@@ -3541,7 +3541,7 @@
         <v>19.29</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.12</v>
+        <v>0.7000000000000004</v>
       </c>
       <c r="DP6" t="n">
         <v>6.58</v>
@@ -3704,7 +3704,7 @@
         <v>13.92</v>
       </c>
       <c r="K7" t="n">
-        <v>3.390000000000001</v>
+        <v>3.160000000000023</v>
       </c>
       <c r="L7" t="n">
         <v>25.05</v>
@@ -3713,7 +3713,7 @@
         <v>6.75</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01999999999999999</v>
+        <v>0.009999999999999948</v>
       </c>
       <c r="O7" t="n">
         <v>0.25</v>
@@ -3722,7 +3722,7 @@
         <v>31.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.94999999999999</v>
+        <v>2.729999999999997</v>
       </c>
       <c r="R7" t="n">
         <v>241.44</v>
@@ -3731,7 +3731,7 @@
         <v>5.52</v>
       </c>
       <c r="T7" t="n">
-        <v>4.039999999999999</v>
+        <v>0.9699999999999993</v>
       </c>
       <c r="U7" t="n">
         <v>29.4</v>
@@ -3785,7 +3785,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.879999999999999</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="AM7" t="n">
         <v>20.45</v>
@@ -3794,7 +3794,7 @@
         <v>5.48</v>
       </c>
       <c r="AO7" t="n">
-        <v>21.09</v>
+        <v>0.7300000000000004</v>
       </c>
       <c r="AP7" t="n">
         <v>156.59</v>
@@ -3812,7 +3812,7 @@
         <v>-5.79</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3400000000000003</v>
+        <v>0.04999999999999938</v>
       </c>
       <c r="AV7" t="n">
         <v>22.54</v>
@@ -3830,7 +3830,7 @@
         <v>11.65</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.780000000000001</v>
+        <v>1.620000000000005</v>
       </c>
       <c r="BB7" t="n">
         <v>15.06</v>
@@ -3839,7 +3839,7 @@
         <v>6.82</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.91</v>
+        <v>0.1699999999999979</v>
       </c>
       <c r="BE7" t="n">
         <v>13.03</v>
@@ -3866,7 +3866,7 @@
         <v>16.91</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.369999999999999</v>
+        <v>0.8099999999999949</v>
       </c>
       <c r="BN7" t="n">
         <v>10.83</v>
@@ -3875,7 +3875,7 @@
         <v>5.94</v>
       </c>
       <c r="BP7" t="n">
-        <v>16.77</v>
+        <v>12.68999999999996</v>
       </c>
       <c r="BQ7" t="n">
         <v>126.12</v>
@@ -3893,7 +3893,7 @@
         <v>12.84</v>
       </c>
       <c r="BV7" t="n">
-        <v>7.690000000000001</v>
+        <v>2.670000000000101</v>
       </c>
       <c r="BW7" t="n">
         <v>217.56</v>
@@ -3902,7 +3902,7 @@
         <v>22.66</v>
       </c>
       <c r="BY7" t="n">
-        <v>23.17999999999998</v>
+        <v>2.199999999999989</v>
       </c>
       <c r="BZ7" t="n">
         <v>171.02</v>
@@ -3911,7 +3911,7 @@
         <v>10.82</v>
       </c>
       <c r="CB7" t="n">
-        <v>3.840000000000003</v>
+        <v>3.400000000000013</v>
       </c>
       <c r="CC7" t="n">
         <v>27.56</v>
@@ -3920,7 +3920,7 @@
         <v>10.99</v>
       </c>
       <c r="CE7" t="n">
-        <v>2.109999999999999</v>
+        <v>0.07000000000003515</v>
       </c>
       <c r="CF7" t="n">
         <v>99.40000000000001</v>
@@ -3929,7 +3929,7 @@
         <v>11.29</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.83</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="CI7" t="n">
         <v>76.95999999999999</v>
@@ -3938,7 +3938,7 @@
         <v>25.19</v>
       </c>
       <c r="CK7" t="n">
-        <v>19.41999999999999</v>
+        <v>18.53999999999999</v>
       </c>
       <c r="CL7" t="n">
         <v>131.72</v>
@@ -3947,7 +3947,7 @@
         <v>-2.31</v>
       </c>
       <c r="CN7" t="n">
-        <v>1.09</v>
+        <v>0.4599999999999895</v>
       </c>
       <c r="CO7" t="n">
         <v>30.75</v>
@@ -3965,7 +3965,7 @@
         <v>11.89</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.129999999999999</v>
       </c>
       <c r="CU7" t="n">
         <v>73.48999999999999</v>
@@ -3974,7 +3974,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.1900000000000084</v>
+        <v>0.06999999999999681</v>
       </c>
       <c r="CX7" t="n">
         <v>139.87</v>
@@ -4001,7 +4001,7 @@
         <v>6.88</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.949999999999998</v>
+        <v>0.8999999999999939</v>
       </c>
       <c r="DG7" t="n">
         <v>70.95</v>
@@ -4019,7 +4019,7 @@
         <v>3.51</v>
       </c>
       <c r="DL7" t="n">
-        <v>29.70999999999998</v>
+        <v>27.78999999999986</v>
       </c>
       <c r="DM7" t="n">
         <v>200.98</v>
@@ -4028,7 +4028,7 @@
         <v>16.35</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.0499999999999996</v>
       </c>
       <c r="DP7" t="n">
         <v>8.34</v>
@@ -4200,7 +4200,7 @@
         <v>6.28</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01000000000000001</v>
+        <v>3.122502256758253e-17</v>
       </c>
       <c r="O8" t="n">
         <v>0.27</v>
@@ -4209,7 +4209,7 @@
         <v>32.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.96000000000004</v>
+        <v>25.50000000000004</v>
       </c>
       <c r="R8" t="n">
         <v>274.32</v>
@@ -4227,7 +4227,7 @@
         <v>-6.81</v>
       </c>
       <c r="W8" t="n">
-        <v>13.54000000000001</v>
+        <v>8.020000000000008</v>
       </c>
       <c r="X8" t="n">
         <v>115.88</v>
@@ -4236,7 +4236,7 @@
         <v>13.18</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.230000000000004</v>
+        <v>0.02000000000001384</v>
       </c>
       <c r="AA8" t="n">
         <v>37.74</v>
@@ -4245,7 +4245,7 @@
         <v>5.84</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.490000000000002</v>
+        <v>0.0800000000000054</v>
       </c>
       <c r="AD8" t="n">
         <v>61.87</v>
@@ -4254,7 +4254,7 @@
         <v>13.66</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.290000000000001</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>11.58</v>
@@ -4263,7 +4263,7 @@
         <v>14.8</v>
       </c>
       <c r="AI8" t="n">
-        <v>438.4200000000001</v>
+        <v>358.300000000001</v>
       </c>
       <c r="AJ8" t="n">
         <v>3500.47</v>
@@ -4272,7 +4272,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.5400000000000031</v>
+        <v>0.2600000000000021</v>
       </c>
       <c r="AM8" t="n">
         <v>23.48</v>
@@ -4290,7 +4290,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="AR8" t="n">
-        <v>10.04000000000001</v>
+        <v>1.880000000000057</v>
       </c>
       <c r="AS8" t="n">
         <v>75.26000000000001</v>
@@ -4299,7 +4299,7 @@
         <v>-6.46</v>
       </c>
       <c r="AU8" t="n">
-        <v>3.239999999999998</v>
+        <v>2.75</v>
       </c>
       <c r="AV8" t="n">
         <v>25.73</v>
@@ -4308,7 +4308,7 @@
         <v>5.28</v>
       </c>
       <c r="AX8" t="n">
-        <v>8.450000000000003</v>
+        <v>1.090000000000011</v>
       </c>
       <c r="AY8" t="n">
         <v>72.83</v>
@@ -4326,7 +4326,7 @@
         <v>7.63</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.7400000000000022</v>
       </c>
       <c r="BE8" t="n">
         <v>14.87</v>
@@ -4344,7 +4344,7 @@
         <v>13.04</v>
       </c>
       <c r="BJ8" t="n">
-        <v>6.390000000000001</v>
+        <v>0.6299999999999952</v>
       </c>
       <c r="BK8" t="n">
         <v>52.69</v>
@@ -4362,7 +4362,7 @@
         <v>7.58</v>
       </c>
       <c r="BP8" t="n">
-        <v>16.48</v>
+        <v>0.7300000000000111</v>
       </c>
       <c r="BQ8" t="n">
         <v>145.46</v>
@@ -4380,7 +4380,7 @@
         <v>13.51</v>
       </c>
       <c r="BV8" t="n">
-        <v>26.25</v>
+        <v>4.90999999999986</v>
       </c>
       <c r="BW8" t="n">
         <v>254.69</v>
@@ -4407,7 +4407,7 @@
         <v>10.83</v>
       </c>
       <c r="CE8" t="n">
-        <v>13.5</v>
+        <v>8.119999999999948</v>
       </c>
       <c r="CF8" t="n">
         <v>114.49</v>
@@ -4416,7 +4416,7 @@
         <v>8.81</v>
       </c>
       <c r="CH8" t="n">
-        <v>1.17</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="CI8" t="n">
         <v>86.68000000000001</v>
@@ -4434,7 +4434,7 @@
         <v>-2.27</v>
       </c>
       <c r="CN8" t="n">
-        <v>3.309999999999991</v>
+        <v>0.03999999999999093</v>
       </c>
       <c r="CO8" t="n">
         <v>35.34</v>
@@ -4443,7 +4443,7 @@
         <v>8.42</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.05000000000000432</v>
       </c>
       <c r="CR8" t="n">
         <v>56.64</v>
@@ -4452,7 +4452,7 @@
         <v>9.67</v>
       </c>
       <c r="CT8" t="n">
-        <v>1.08</v>
+        <v>0.0200000000000031</v>
       </c>
       <c r="CU8" t="n">
         <v>84.69</v>
@@ -4461,7 +4461,7 @@
         <v>7.19</v>
       </c>
       <c r="CW8" t="n">
-        <v>20.40000000000001</v>
+        <v>19.87999999999999</v>
       </c>
       <c r="CX8" t="n">
         <v>160.59</v>
@@ -4470,7 +4470,7 @@
         <v>4.65</v>
       </c>
       <c r="CZ8" t="n">
-        <v>2.400000000000002</v>
+        <v>1.440000000000006</v>
       </c>
       <c r="DA8" t="n">
         <v>19.76</v>
@@ -4479,7 +4479,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="DC8" t="n">
-        <v>6.32</v>
+        <v>5.560000000000009</v>
       </c>
       <c r="DD8" t="n">
         <v>54.15</v>
@@ -4488,7 +4488,7 @@
         <v>7.31</v>
       </c>
       <c r="DF8" t="n">
-        <v>10.65000000000001</v>
+        <v>3.900000000000023</v>
       </c>
       <c r="DG8" t="n">
         <v>81.7</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.3599999999999994</v>
       </c>
       <c r="C9" t="n">
         <v>138.69</v>
@@ -4660,7 +4660,7 @@
         <v>6.33</v>
       </c>
       <c r="E9" t="n">
-        <v>34.47000000000003</v>
+        <v>10.87000000000009</v>
       </c>
       <c r="F9" t="n">
         <v>350.89</v>
@@ -4669,7 +4669,7 @@
         <v>13.28</v>
       </c>
       <c r="H9" t="n">
-        <v>5.359999999999999</v>
+        <v>4.319999999999979</v>
       </c>
       <c r="I9" t="n">
         <v>51.4</v>
@@ -4678,7 +4678,7 @@
         <v>10.02</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7000000000000033</v>
+        <v>0.3400000000000074</v>
       </c>
       <c r="L9" t="n">
         <v>32.75</v>
@@ -4687,7 +4687,7 @@
         <v>7.96</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01999999999999999</v>
+        <v>0.009999999999999917</v>
       </c>
       <c r="O9" t="n">
         <v>0.32</v>
@@ -4705,7 +4705,7 @@
         <v>6.31</v>
       </c>
       <c r="T9" t="n">
-        <v>4.729999999999997</v>
+        <v>1.049999999999989</v>
       </c>
       <c r="U9" t="n">
         <v>38.5</v>
@@ -4723,7 +4723,7 @@
         <v>13.68</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.02999999999998323</v>
       </c>
       <c r="AA9" t="n">
         <v>42.74</v>
@@ -4732,7 +4732,7 @@
         <v>5.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.300000000000004</v>
+        <v>6.569999999999985</v>
       </c>
       <c r="AD9" t="n">
         <v>69.77</v>
@@ -4750,7 +4750,7 @@
         <v>16.39</v>
       </c>
       <c r="AI9" t="n">
-        <v>423.6599999999999</v>
+        <v>5.269999999999584</v>
       </c>
       <c r="AJ9" t="n">
         <v>3979.54</v>
@@ -4759,7 +4759,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.009999999999998</v>
+        <v>1.129999999999987</v>
       </c>
       <c r="AM9" t="n">
         <v>26.96</v>
@@ -4768,7 +4768,7 @@
         <v>4.95</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.7299999999999898</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="AP9" t="n">
         <v>202.83</v>
@@ -4804,7 +4804,7 @@
         <v>10.47</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.73</v>
+        <v>0.230000000000004</v>
       </c>
       <c r="BB9" t="n">
         <v>19.39</v>
@@ -4822,7 +4822,7 @@
         <v>-17.69</v>
       </c>
       <c r="BG9" t="n">
-        <v>3.940000000000001</v>
+        <v>0.2599999999999933</v>
       </c>
       <c r="BH9" t="n">
         <v>35.02</v>
@@ -4831,7 +4831,7 @@
         <v>10.36</v>
       </c>
       <c r="BJ9" t="n">
-        <v>5.769999999999996</v>
+        <v>0.6700000000000017</v>
       </c>
       <c r="BK9" t="n">
         <v>64.95</v>
@@ -4840,7 +4840,7 @@
         <v>32.21</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.35</v>
+        <v>1.269999999999992</v>
       </c>
       <c r="BN9" t="n">
         <v>14.19</v>
@@ -4849,7 +4849,7 @@
         <v>9.31</v>
       </c>
       <c r="BP9" t="n">
-        <v>14.72999999999999</v>
+        <v>13.26999999999997</v>
       </c>
       <c r="BQ9" t="n">
         <v>166.46</v>
@@ -4876,7 +4876,7 @@
         <v>19.87</v>
       </c>
       <c r="BY9" t="n">
-        <v>23.08000000000001</v>
+        <v>18.27999999999993</v>
       </c>
       <c r="BZ9" t="n">
         <v>224.42</v>
@@ -4903,7 +4903,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="CH9" t="n">
-        <v>9.390000000000001</v>
+        <v>5.020000000000001</v>
       </c>
       <c r="CI9" t="n">
         <v>102.99</v>
@@ -4912,7 +4912,7 @@
         <v>17.61</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.5399999999999885</v>
+        <v>0.2699999999999783</v>
       </c>
       <c r="CL9" t="n">
         <v>168.98</v>
@@ -4921,7 +4921,7 @@
         <v>-2.86</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.8600000000000065</v>
+        <v>0.8200000000000156</v>
       </c>
       <c r="CO9" t="n">
         <v>39.88</v>
@@ -4930,7 +4930,7 @@
         <v>-0.88</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6.670000000000002</v>
+        <v>4.969999999999985</v>
       </c>
       <c r="CR9" t="n">
         <v>64.61</v>
@@ -4939,7 +4939,7 @@
         <v>9.33</v>
       </c>
       <c r="CT9" t="n">
-        <v>12.00999999999999</v>
+        <v>10.08999999999999</v>
       </c>
       <c r="CU9" t="n">
         <v>97.08</v>
@@ -4957,7 +4957,7 @@
         <v>4.95</v>
       </c>
       <c r="CZ9" t="n">
-        <v>2.049999999999997</v>
+        <v>0.1299999999999932</v>
       </c>
       <c r="DA9" t="n">
         <v>21.81</v>
@@ -4975,7 +4975,7 @@
         <v>14.62</v>
       </c>
       <c r="DF9" t="n">
-        <v>9.799999999999997</v>
+        <v>1.099999999999985</v>
       </c>
       <c r="DG9" t="n">
         <v>93.78</v>
@@ -4984,7 +4984,7 @@
         <v>2.57</v>
       </c>
       <c r="DI9" t="n">
-        <v>8.959999999999994</v>
+        <v>5.279999999999994</v>
       </c>
       <c r="DJ9" t="n">
         <v>89.40000000000001</v>
@@ -4993,7 +4993,7 @@
         <v>2.13</v>
       </c>
       <c r="DL9" t="n">
-        <v>28.49000000000001</v>
+        <v>24.16999999999985</v>
       </c>
       <c r="DM9" t="n">
         <v>258.36</v>
@@ -5002,7 +5002,7 @@
         <v>10.77</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.8499999999999996</v>
+        <v>0.2499999999999973</v>
       </c>
       <c r="DP9" t="n">
         <v>10.04</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.66</v>
+        <v>13.66</v>
       </c>
       <c r="C10" t="n">
         <v>155.06</v>
@@ -5165,7 +5165,7 @@
         <v>13.99</v>
       </c>
       <c r="K10" t="n">
-        <v>3.489999999999995</v>
+        <v>1.229999999999977</v>
       </c>
       <c r="L10" t="n">
         <v>36.57</v>
@@ -5174,7 +5174,7 @@
         <v>5.94</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02000000000000002</v>
+        <v>3.122502256758253e-17</v>
       </c>
       <c r="O10" t="n">
         <v>0.4</v>
@@ -5201,7 +5201,7 @@
         <v>-8.119999999999999</v>
       </c>
       <c r="W10" t="n">
-        <v>6.84</v>
+        <v>1.360000000000041</v>
       </c>
       <c r="X10" t="n">
         <v>147.98</v>
@@ -5210,7 +5210,7 @@
         <v>13.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.1300000000000098</v>
       </c>
       <c r="AA10" t="n">
         <v>48.11</v>
@@ -5228,7 +5228,7 @@
         <v>13.22</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.8700000000000032</v>
+        <v>0.3900000000000152</v>
       </c>
       <c r="AG10" t="n">
         <v>14.93</v>
@@ -5237,7 +5237,7 @@
         <v>16.7</v>
       </c>
       <c r="AI10" t="n">
-        <v>42.25</v>
+        <v>31.71000000000084</v>
       </c>
       <c r="AJ10" t="n">
         <v>4441.45</v>
@@ -5255,7 +5255,7 @@
         <v>6.65</v>
       </c>
       <c r="AO10" t="n">
-        <v>22.31</v>
+        <v>21.55000000000004</v>
       </c>
       <c r="AP10" t="n">
         <v>227.58</v>
@@ -5264,7 +5264,7 @@
         <v>9.23</v>
       </c>
       <c r="AR10" t="n">
-        <v>9.449999999999989</v>
+        <v>7.569999999999986</v>
       </c>
       <c r="AS10" t="n">
         <v>93.78</v>
@@ -5273,7 +5273,7 @@
         <v>-7.16</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.7100000000000009</v>
+        <v>0.1899999999999968</v>
       </c>
       <c r="AV10" t="n">
         <v>32.61</v>
@@ -5282,7 +5282,7 @@
         <v>4.59</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.579999999999998</v>
+        <v>7.740000000000023</v>
       </c>
       <c r="AY10" t="n">
         <v>93.47</v>
@@ -5291,7 +5291,7 @@
         <v>12.32</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.919999999999999</v>
+        <v>0.4599999999999911</v>
       </c>
       <c r="BB10" t="n">
         <v>21.69</v>
@@ -5300,7 +5300,7 @@
         <v>7.71</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.5799999999999981</v>
+        <v>0.0999999999999949</v>
       </c>
       <c r="BE10" t="n">
         <v>17.01</v>
@@ -5309,7 +5309,7 @@
         <v>-15.18</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.549999999999997</v>
+        <v>0.529999999999998</v>
       </c>
       <c r="BH10" t="n">
         <v>39.53</v>
@@ -5318,7 +5318,7 @@
         <v>10.83</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.450000000000003</v>
+        <v>1.150000000000006</v>
       </c>
       <c r="BK10" t="n">
         <v>75.48</v>
@@ -5345,7 +5345,7 @@
         <v>14.43</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.8999999999999986</v>
+        <v>0.4600000000000293</v>
       </c>
       <c r="BT10" t="n">
         <v>173.8</v>
@@ -5354,7 +5354,7 @@
         <v>11.82</v>
       </c>
       <c r="BV10" t="n">
-        <v>4.859999999999989</v>
+        <v>1.77999999999998</v>
       </c>
       <c r="BW10" t="n">
         <v>328.37</v>
@@ -5372,7 +5372,7 @@
         <v>10.16</v>
       </c>
       <c r="CB10" t="n">
-        <v>4.269999999999996</v>
+        <v>3.989999999999994</v>
       </c>
       <c r="CC10" t="n">
         <v>40.18</v>
@@ -5390,7 +5390,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="CH10" t="n">
-        <v>7.700000000000003</v>
+        <v>0.6500000000000021</v>
       </c>
       <c r="CI10" t="n">
         <v>113.02</v>
@@ -5399,7 +5399,7 @@
         <v>16.57</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.9500000000000206</v>
+        <v>0.1400000000000538</v>
       </c>
       <c r="CL10" t="n">
         <v>188.2</v>
@@ -5408,7 +5408,7 @@
         <v>-3.08</v>
       </c>
       <c r="CN10" t="n">
-        <v>4.04999999999999</v>
+        <v>0.6099999999999635</v>
       </c>
       <c r="CO10" t="n">
         <v>44.46</v>
@@ -5435,7 +5435,7 @@
         <v>4.69</v>
       </c>
       <c r="CW10" t="n">
-        <v>20.20000000000002</v>
+        <v>14.4000000000001</v>
       </c>
       <c r="CX10" t="n">
         <v>204.14</v>
@@ -5444,7 +5444,7 @@
         <v>4.31</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.5300000000000047</v>
+        <v>0.4000000000000115</v>
       </c>
       <c r="DA10" t="n">
         <v>24.11</v>
@@ -5453,7 +5453,7 @@
         <v>6.78</v>
       </c>
       <c r="DC10" t="n">
-        <v>6.590000000000003</v>
+        <v>0.07000000000002293</v>
       </c>
       <c r="DD10" t="n">
         <v>73.08</v>
@@ -5462,7 +5462,7 @@
         <v>12.88</v>
       </c>
       <c r="DF10" t="n">
-        <v>5.379999999999994</v>
+        <v>3.180000000000023</v>
       </c>
       <c r="DG10" t="n">
         <v>103.27</v>
@@ -5471,7 +5471,7 @@
         <v>2.02</v>
       </c>
       <c r="DI10" t="n">
-        <v>7.849999999999994</v>
+        <v>0.7300000000000004</v>
       </c>
       <c r="DJ10" t="n">
         <v>99.63</v>
@@ -5489,7 +5489,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.3499999999999994</v>
+        <v>0.1000000000000021</v>
       </c>
       <c r="DP10" t="n">
         <v>11.71</v>
@@ -5634,7 +5634,7 @@
         <v>6.37</v>
       </c>
       <c r="E11" t="n">
-        <v>32.13</v>
+        <v>10.29000000000008</v>
       </c>
       <c r="F11" t="n">
         <v>438.56</v>
@@ -5643,7 +5643,7 @@
         <v>14.16</v>
       </c>
       <c r="H11" t="n">
-        <v>2.870000000000005</v>
+        <v>0.7100000000000088</v>
       </c>
       <c r="I11" t="n">
         <v>64.86</v>
@@ -5661,7 +5661,7 @@
         <v>7.49</v>
       </c>
       <c r="N11" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="O11" t="n">
         <v>0.41</v>
@@ -5670,7 +5670,7 @@
         <v>31.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.99000000000006</v>
+        <v>16.4700000000003</v>
       </c>
       <c r="R11" t="n">
         <v>377.49</v>
@@ -5679,7 +5679,7 @@
         <v>6.08</v>
       </c>
       <c r="T11" t="n">
-        <v>42.11</v>
+        <v>40.86999999999999</v>
       </c>
       <c r="U11" t="n">
         <v>46.77</v>
@@ -5688,7 +5688,7 @@
         <v>-9.130000000000001</v>
       </c>
       <c r="W11" t="n">
-        <v>19.53</v>
+        <v>0.3899999999999371</v>
       </c>
       <c r="X11" t="n">
         <v>168.17</v>
@@ -5697,7 +5697,7 @@
         <v>10.21</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.719999999999992</v>
+        <v>0.749999999999979</v>
       </c>
       <c r="AA11" t="n">
         <v>55.18</v>
@@ -5706,7 +5706,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.560000000000019</v>
+        <v>3.160000000000075</v>
       </c>
       <c r="AD11" t="n">
         <v>87.03</v>
@@ -5724,7 +5724,7 @@
         <v>13.14</v>
       </c>
       <c r="AI11" t="n">
-        <v>230.6500000000005</v>
+        <v>66.92000000000007</v>
       </c>
       <c r="AJ11" t="n">
         <v>4923.39</v>
@@ -5733,7 +5733,7 @@
         <v>8.539999999999999</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6699999999999977</v>
+        <v>0.1299999999999946</v>
       </c>
       <c r="AM11" t="n">
         <v>34.8</v>
@@ -5760,7 +5760,7 @@
         <v>-6.09</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.2299999999999969</v>
+        <v>0.04000000000000009</v>
       </c>
       <c r="AV11" t="n">
         <v>35.89</v>
@@ -5787,7 +5787,7 @@
         <v>5.56</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.370000000000001</v>
+        <v>0.03000000000000447</v>
       </c>
       <c r="BE11" t="n">
         <v>19.41</v>
@@ -5796,7 +5796,7 @@
         <v>-10.39</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.8600000000000065</v>
+        <v>0.3300000000000085</v>
       </c>
       <c r="BH11" t="n">
         <v>42.54</v>
@@ -5805,7 +5805,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="BJ11" t="n">
-        <v>11.00000000000001</v>
+        <v>2.499999999999996</v>
       </c>
       <c r="BK11" t="n">
         <v>84.53</v>
@@ -5814,7 +5814,7 @@
         <v>33.91</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.570000000000002</v>
+        <v>0.8100000000000063</v>
       </c>
       <c r="BN11" t="n">
         <v>18.11</v>
@@ -5823,7 +5823,7 @@
         <v>14.09</v>
       </c>
       <c r="BP11" t="n">
-        <v>7.000000000000028</v>
+        <v>1.880000000000027</v>
       </c>
       <c r="BQ11" t="n">
         <v>208.58</v>
@@ -5832,7 +5832,7 @@
         <v>16.73</v>
       </c>
       <c r="BS11" t="n">
-        <v>20.04</v>
+        <v>17.09999999999996</v>
       </c>
       <c r="BT11" t="n">
         <v>192.68</v>
@@ -5841,7 +5841,7 @@
         <v>11.04</v>
       </c>
       <c r="BV11" t="n">
-        <v>18.24000000000001</v>
+        <v>8.040000000000081</v>
       </c>
       <c r="BW11" t="n">
         <v>360.66</v>
@@ -5850,7 +5850,7 @@
         <v>18.18</v>
       </c>
       <c r="BY11" t="n">
-        <v>11.36999999999998</v>
+        <v>3.570000000000011</v>
       </c>
       <c r="BZ11" t="n">
         <v>275.03</v>
@@ -5868,7 +5868,7 @@
         <v>7.66</v>
       </c>
       <c r="CE11" t="n">
-        <v>10.03</v>
+        <v>3.110000000000033</v>
       </c>
       <c r="CF11" t="n">
         <v>159.98</v>
@@ -5877,7 +5877,7 @@
         <v>5.56</v>
       </c>
       <c r="CH11" t="n">
-        <v>35.64</v>
+        <v>11.89</v>
       </c>
       <c r="CI11" t="n">
         <v>121.58</v>
@@ -5886,7 +5886,7 @@
         <v>16.17</v>
       </c>
       <c r="CK11" t="n">
-        <v>5.740000000000009</v>
+        <v>4.099999999999847</v>
       </c>
       <c r="CL11" t="n">
         <v>207.96</v>
@@ -5904,7 +5904,7 @@
         <v>9.15</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.829999999999998</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="CR11" t="n">
         <v>77.79000000000001</v>
@@ -5931,7 +5931,7 @@
         <v>4.8</v>
       </c>
       <c r="CZ11" t="n">
-        <v>1.529999999999998</v>
+        <v>0.4699999999999886</v>
       </c>
       <c r="DA11" t="n">
         <v>26.79</v>
@@ -5940,7 +5940,7 @@
         <v>6.49</v>
       </c>
       <c r="DC11" t="n">
-        <v>5.279999999999996</v>
+        <v>0.3199999999999878</v>
       </c>
       <c r="DD11" t="n">
         <v>76.38</v>
@@ -5949,7 +5949,7 @@
         <v>7.08</v>
       </c>
       <c r="DF11" t="n">
-        <v>13.75</v>
+        <v>2.990000000000013</v>
       </c>
       <c r="DG11" t="n">
         <v>113.21</v>
@@ -5958,7 +5958,7 @@
         <v>-2.75</v>
       </c>
       <c r="DI11" t="n">
-        <v>4.570000000000006</v>
+        <v>3.840000000000005</v>
       </c>
       <c r="DJ11" t="n">
         <v>108.49</v>
@@ -5976,7 +5976,7 @@
         <v>5.48</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.640000000000003</v>
+        <v>0.1900000000000015</v>
       </c>
       <c r="DP11" t="n">
         <v>12.71</v>
@@ -6121,7 +6121,7 @@
         <v>6.47</v>
       </c>
       <c r="E12" t="n">
-        <v>65.45999999999999</v>
+        <v>6.659999999999972</v>
       </c>
       <c r="F12" t="n">
         <v>523.34</v>
@@ -6130,7 +6130,7 @@
         <v>14.71</v>
       </c>
       <c r="H12" t="n">
-        <v>1.379999999999997</v>
+        <v>0.129999999999989</v>
       </c>
       <c r="I12" t="n">
         <v>75.97</v>
@@ -6175,7 +6175,7 @@
         <v>-9.26</v>
       </c>
       <c r="W12" t="n">
-        <v>5.25</v>
+        <v>2.130000000000032</v>
       </c>
       <c r="X12" t="n">
         <v>192.9</v>
@@ -6184,7 +6184,7 @@
         <v>12.07</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.750000000000005</v>
+        <v>0.03000000000001313</v>
       </c>
       <c r="AA12" t="n">
         <v>61.54</v>
@@ -6220,7 +6220,7 @@
         <v>7.88</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.340000000000001</v>
+        <v>0.2800000000000195</v>
       </c>
       <c r="AM12" t="n">
         <v>38.74</v>
@@ -6238,7 +6238,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.819999999999999</v>
+        <v>2.459999999999988</v>
       </c>
       <c r="AS12" t="n">
         <v>115.58</v>
@@ -6247,7 +6247,7 @@
         <v>-6.23</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9700000000000024</v>
+        <v>0.2400000000000117</v>
       </c>
       <c r="AV12" t="n">
         <v>40.48</v>
@@ -6274,7 +6274,7 @@
         <v>8.16</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.72</v>
+        <v>0.5799999999999925</v>
       </c>
       <c r="BE12" t="n">
         <v>22.14</v>
@@ -6283,7 +6283,7 @@
         <v>-6.34</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.919999999999996</v>
+        <v>0.1999999999999824</v>
       </c>
       <c r="BH12" t="n">
         <v>48.67</v>
@@ -6292,7 +6292,7 @@
         <v>11.54</v>
       </c>
       <c r="BJ12" t="n">
-        <v>12.97</v>
+        <v>1.96999999999999</v>
       </c>
       <c r="BK12" t="n">
         <v>103.41</v>
@@ -6301,7 +6301,7 @@
         <v>25.58</v>
       </c>
       <c r="BM12" t="n">
-        <v>2.84</v>
+        <v>0.07999999999999408</v>
       </c>
       <c r="BN12" t="n">
         <v>22.35</v>
@@ -6310,7 +6310,7 @@
         <v>17.76</v>
       </c>
       <c r="BP12" t="n">
-        <v>9.159999999999979</v>
+        <v>0.279999999999923</v>
       </c>
       <c r="BQ12" t="n">
         <v>239.4</v>
@@ -6319,7 +6319,7 @@
         <v>16.47</v>
       </c>
       <c r="BS12" t="n">
-        <v>29.61</v>
+        <v>9.57</v>
       </c>
       <c r="BT12" t="n">
         <v>228.57</v>
@@ -6355,7 +6355,7 @@
         <v>9.93</v>
       </c>
       <c r="CE12" t="n">
-        <v>24.99</v>
+        <v>0.08999999999997677</v>
       </c>
       <c r="CF12" t="n">
         <v>204.32</v>
@@ -6364,7 +6364,7 @@
         <v>14.24</v>
       </c>
       <c r="CH12" t="n">
-        <v>22.21</v>
+        <v>1.970000000000002</v>
       </c>
       <c r="CI12" t="n">
         <v>147.75</v>
@@ -6373,7 +6373,7 @@
         <v>-0.16</v>
       </c>
       <c r="CK12" t="n">
-        <v>10.97999999999998</v>
+        <v>0.4499999999999842</v>
       </c>
       <c r="CL12" t="n">
         <v>236.65</v>
@@ -6382,7 +6382,7 @@
         <v>-2.32</v>
       </c>
       <c r="CN12" t="n">
-        <v>1.969999999999997</v>
+        <v>0.78999999999999</v>
       </c>
       <c r="CO12" t="n">
         <v>56.92</v>
@@ -6391,7 +6391,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="CQ12" t="n">
-        <v>2.4</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="CR12" t="n">
         <v>88.91</v>
@@ -6418,7 +6418,7 @@
         <v>4.94</v>
       </c>
       <c r="CZ12" t="n">
-        <v>3.4</v>
+        <v>0.4000000000000202</v>
       </c>
       <c r="DA12" t="n">
         <v>31.47</v>
@@ -6427,7 +6427,7 @@
         <v>7.51</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.8500000000000014</v>
+        <v>0.2100000000000258</v>
       </c>
       <c r="DD12" t="n">
         <v>89.06999999999999</v>
@@ -6436,7 +6436,7 @@
         <v>7.06</v>
       </c>
       <c r="DF12" t="n">
-        <v>4.73</v>
+        <v>1.739999999999987</v>
       </c>
       <c r="DG12" t="n">
         <v>130.19</v>
@@ -6454,7 +6454,7 @@
         <v>4.29</v>
       </c>
       <c r="DL12" t="n">
-        <v>10.91999999999998</v>
+        <v>3.399999999999884</v>
       </c>
       <c r="DM12" t="n">
         <v>338.56</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08</v>
+        <v>0.2000000000000295</v>
       </c>
       <c r="C13" t="n">
         <v>30.19</v>
@@ -6608,7 +6608,7 @@
         <v>11.92</v>
       </c>
       <c r="E13" t="n">
-        <v>42.94000000000001</v>
+        <v>2.950000000000049</v>
       </c>
       <c r="F13" t="n">
         <v>74.48</v>
@@ -6617,7 +6617,7 @@
         <v>13.78</v>
       </c>
       <c r="H13" t="n">
-        <v>5.950000000000001</v>
+        <v>0.430000000000013</v>
       </c>
       <c r="I13" t="n">
         <v>11.35</v>
@@ -6626,7 +6626,7 @@
         <v>11.87</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>0.9000000000000028</v>
       </c>
       <c r="L13" t="n">
         <v>6.62</v>
@@ -6644,7 +6644,7 @@
         <v>-33.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.37</v>
+        <v>4.130000000000004</v>
       </c>
       <c r="R13" t="n">
         <v>60.14</v>
@@ -6662,7 +6662,7 @@
         <v>-2.89</v>
       </c>
       <c r="W13" t="n">
-        <v>14.95</v>
+        <v>4.449999999999999</v>
       </c>
       <c r="X13" t="n">
         <v>29.41</v>
@@ -6671,7 +6671,7 @@
         <v>18.69</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.699999999999999</v>
+        <v>2.859999999999955</v>
       </c>
       <c r="AA13" t="n">
         <v>9.710000000000001</v>
@@ -6680,7 +6680,7 @@
         <v>10.19</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.75</v>
+        <v>2.35000000000002</v>
       </c>
       <c r="AD13" t="n">
         <v>15.24</v>
@@ -6689,7 +6689,7 @@
         <v>11.57</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.640000000000001</v>
+        <v>1.319999999999997</v>
       </c>
       <c r="AG13" t="n">
         <v>2.86</v>
@@ -6698,7 +6698,7 @@
         <v>12.02</v>
       </c>
       <c r="AI13" t="n">
-        <v>430.47</v>
+        <v>138.7100000000016</v>
       </c>
       <c r="AJ13" t="n">
         <v>841.5</v>
@@ -6707,7 +6707,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.79</v>
+        <v>0.2399999999999871</v>
       </c>
       <c r="AM13" t="n">
         <v>5.95</v>
@@ -6716,7 +6716,7 @@
         <v>6.98</v>
       </c>
       <c r="AO13" t="n">
-        <v>23.05</v>
+        <v>2.709999999999997</v>
       </c>
       <c r="AP13" t="n">
         <v>41.65</v>
@@ -6725,7 +6725,7 @@
         <v>10.35</v>
       </c>
       <c r="AR13" t="n">
-        <v>10.39</v>
+        <v>2.110000000000013</v>
       </c>
       <c r="AS13" t="n">
         <v>16.97</v>
@@ -6734,7 +6734,7 @@
         <v>-8.92</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.24</v>
+        <v>0.7399999999999711</v>
       </c>
       <c r="AV13" t="n">
         <v>5.33</v>
@@ -6743,7 +6743,7 @@
         <v>-1.47</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.199999999999999</v>
+        <v>2.180000000000021</v>
       </c>
       <c r="AY13" t="n">
         <v>20.07</v>
@@ -6752,7 +6752,7 @@
         <v>25.47</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.5</v>
+        <v>0.4599999999999972</v>
       </c>
       <c r="BB13" t="n">
         <v>3.85</v>
@@ -6761,7 +6761,7 @@
         <v>16.86</v>
       </c>
       <c r="BD13" t="n">
-        <v>2.399999999999999</v>
+        <v>0.07000000000000206</v>
       </c>
       <c r="BE13" t="n">
         <v>3.58</v>
@@ -6770,7 +6770,7 @@
         <v>-3.17</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.23</v>
+        <v>0.8500000000000505</v>
       </c>
       <c r="BH13" t="n">
         <v>7.51</v>
@@ -6779,7 +6779,7 @@
         <v>18.6</v>
       </c>
       <c r="BJ13" t="n">
-        <v>4.880000000000001</v>
+        <v>0.9400000000000208</v>
       </c>
       <c r="BK13" t="n">
         <v>16.2</v>
@@ -6788,7 +6788,7 @@
         <v>24.94</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.8</v>
+        <v>0.4500000000000079</v>
       </c>
       <c r="BN13" t="n">
         <v>3.46</v>
@@ -6797,7 +6797,7 @@
         <v>21.61</v>
       </c>
       <c r="BP13" t="n">
-        <v>14.03</v>
+        <v>2.150000000000225</v>
       </c>
       <c r="BQ13" t="n">
         <v>44.58</v>
@@ -6806,7 +6806,7 @@
         <v>23.79</v>
       </c>
       <c r="BS13" t="n">
-        <v>19.62</v>
+        <v>0.4800000000000004</v>
       </c>
       <c r="BT13" t="n">
         <v>34.75</v>
@@ -6815,7 +6815,7 @@
         <v>17.38</v>
       </c>
       <c r="BV13" t="n">
-        <v>33.16</v>
+        <v>17.84000000000004</v>
       </c>
       <c r="BW13" t="n">
         <v>64.51000000000001</v>
@@ -6824,7 +6824,7 @@
         <v>14.66</v>
       </c>
       <c r="BY13" t="n">
-        <v>24.48</v>
+        <v>3.759999999999918</v>
       </c>
       <c r="BZ13" t="n">
         <v>45.18</v>
@@ -6833,7 +6833,7 @@
         <v>8.65</v>
       </c>
       <c r="CB13" t="n">
-        <v>3.89</v>
+        <v>0.3299999999999956</v>
       </c>
       <c r="CC13" t="n">
         <v>7.48</v>
@@ -6842,7 +6842,7 @@
         <v>9.08</v>
       </c>
       <c r="CE13" t="n">
-        <v>12.98</v>
+        <v>6.230000000000031</v>
       </c>
       <c r="CF13" t="n">
         <v>25.46</v>
@@ -6851,7 +6851,7 @@
         <v>1.9</v>
       </c>
       <c r="CH13" t="n">
-        <v>7.099999999999998</v>
+        <v>5.129999999999995</v>
       </c>
       <c r="CI13" t="n">
         <v>21.4</v>
@@ -6860,7 +6860,7 @@
         <v>-3.63</v>
       </c>
       <c r="CK13" t="n">
-        <v>16.02</v>
+        <v>4.140000000000049</v>
       </c>
       <c r="CL13" t="n">
         <v>35.38</v>
@@ -6869,7 +6869,7 @@
         <v>-6.63</v>
       </c>
       <c r="CN13" t="n">
-        <v>6.049999999999999</v>
+        <v>1.710000000000032</v>
       </c>
       <c r="CO13" t="n">
         <v>8.76</v>
@@ -6878,7 +6878,7 @@
         <v>8.74</v>
       </c>
       <c r="CQ13" t="n">
-        <v>6.74</v>
+        <v>1.649999999999999</v>
       </c>
       <c r="CR13" t="n">
         <v>13.76</v>
@@ -6887,7 +6887,7 @@
         <v>12.28</v>
       </c>
       <c r="CT13" t="n">
-        <v>10.48</v>
+        <v>2.110000000000035</v>
       </c>
       <c r="CU13" t="n">
         <v>20.36</v>
@@ -6896,7 +6896,7 @@
         <v>13.75</v>
       </c>
       <c r="CW13" t="n">
-        <v>19.18</v>
+        <v>12.29999999999996</v>
       </c>
       <c r="CX13" t="n">
         <v>35.86</v>
@@ -6905,7 +6905,7 @@
         <v>5.9</v>
       </c>
       <c r="CZ13" t="n">
-        <v>2.23</v>
+        <v>0.3599999999999979</v>
       </c>
       <c r="DA13" t="n">
         <v>3.77</v>
@@ -6914,7 +6914,7 @@
         <v>10.94</v>
       </c>
       <c r="DC13" t="n">
-        <v>6.639999999999999</v>
+        <v>3.559999999999982</v>
       </c>
       <c r="DD13" t="n">
         <v>14.1</v>
@@ -6923,7 +6923,7 @@
         <v>10.86</v>
       </c>
       <c r="DF13" t="n">
-        <v>9.629999999999999</v>
+        <v>0.1699999999999982</v>
       </c>
       <c r="DG13" t="n">
         <v>18.55</v>
@@ -6932,7 +6932,7 @@
         <v>0.39</v>
       </c>
       <c r="DI13" t="n">
-        <v>9.470000000000002</v>
+        <v>1.650000000000006</v>
       </c>
       <c r="DJ13" t="n">
         <v>18.18</v>
@@ -6941,7 +6941,7 @@
         <v>11.32</v>
       </c>
       <c r="DL13" t="n">
-        <v>23.2</v>
+        <v>1.720000000000204</v>
       </c>
       <c r="DM13" t="n">
         <v>50.95</v>
@@ -6950,7 +6950,7 @@
         <v>3.53</v>
       </c>
       <c r="DO13" t="n">
-        <v>1.51</v>
+        <v>0.8700000000000081</v>
       </c>
       <c r="DP13" t="n">
         <v>2.29</v>
@@ -7095,7 +7095,7 @@
         <v>13.1</v>
       </c>
       <c r="E14" t="n">
-        <v>39.47</v>
+        <v>26.90999999999993</v>
       </c>
       <c r="F14" t="n">
         <v>125.02</v>
@@ -7113,7 +7113,7 @@
         <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>3.44</v>
+        <v>0.6399999999999988</v>
       </c>
       <c r="L14" t="n">
         <v>10.65</v>
@@ -7131,7 +7131,7 @@
         <v>-38.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.72</v>
+        <v>4.41</v>
       </c>
       <c r="R14" t="n">
         <v>95.56999999999999</v>
@@ -7149,7 +7149,7 @@
         <v>-0.4</v>
       </c>
       <c r="W14" t="n">
-        <v>14.53</v>
+        <v>0.3800000000000008</v>
       </c>
       <c r="X14" t="n">
         <v>47.36</v>
@@ -7176,7 +7176,7 @@
         <v>13.4</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.409999999999999</v>
+        <v>0.01000000000000112</v>
       </c>
       <c r="AG14" t="n">
         <v>4.61</v>
@@ -7194,7 +7194,7 @@
         <v>10.8</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.06000000000001271</v>
       </c>
       <c r="AM14" t="n">
         <v>9.140000000000001</v>
@@ -7203,7 +7203,7 @@
         <v>9.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>22.38000000000001</v>
+        <v>3.400000000000013</v>
       </c>
       <c r="AP14" t="n">
         <v>66.97</v>
@@ -7212,7 +7212,7 @@
         <v>10.2</v>
       </c>
       <c r="AR14" t="n">
-        <v>8.98</v>
+        <v>0.1899999999999729</v>
       </c>
       <c r="AS14" t="n">
         <v>26.68</v>
@@ -7239,7 +7239,7 @@
         <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.5900000000000007</v>
+        <v>0.09000000000000075</v>
       </c>
       <c r="BB14" t="n">
         <v>6.31</v>
@@ -7248,7 +7248,7 @@
         <v>-11.1</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.27</v>
+        <v>0.2300000000000029</v>
       </c>
       <c r="BE14" t="n">
         <v>6.11</v>
@@ -7266,7 +7266,7 @@
         <v>17.6</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1.489999999999997</v>
+        <v>0.5499999999999763</v>
       </c>
       <c r="BK14" t="n">
         <v>26.07</v>
@@ -7275,7 +7275,7 @@
         <v>46.1</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.49</v>
+        <v>0.4299999999999959</v>
       </c>
       <c r="BN14" t="n">
         <v>5.17</v>
@@ -7284,7 +7284,7 @@
         <v>11.5</v>
       </c>
       <c r="BP14" t="n">
-        <v>5.820000000000002</v>
+        <v>0.9499999999999806</v>
       </c>
       <c r="BQ14" t="n">
         <v>69.13</v>
@@ -7293,7 +7293,7 @@
         <v>38.2</v>
       </c>
       <c r="BS14" t="n">
-        <v>16.50000000000001</v>
+        <v>5.97000000000001</v>
       </c>
       <c r="BT14" t="n">
         <v>55.3</v>
@@ -7311,7 +7311,7 @@
         <v>18.3</v>
       </c>
       <c r="BY14" t="n">
-        <v>23.64999999999999</v>
+        <v>4.350000000000012</v>
       </c>
       <c r="BZ14" t="n">
         <v>72.37</v>
@@ -7356,7 +7356,7 @@
         <v>2.6</v>
       </c>
       <c r="CN14" t="n">
-        <v>2.879999999999999</v>
+        <v>0.3799999999999768</v>
       </c>
       <c r="CO14" t="n">
         <v>14</v>
@@ -7401,7 +7401,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="DC14" t="n">
-        <v>6.370000000000001</v>
+        <v>0.5800000000000036</v>
       </c>
       <c r="DD14" t="n">
         <v>21.26</v>
@@ -7410,7 +7410,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.140000000000004</v>
       </c>
       <c r="DG14" t="n">
         <v>30.84</v>
@@ -7419,7 +7419,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="DI14" t="n">
-        <v>9.220000000000002</v>
+        <v>0.3599999999999859</v>
       </c>
       <c r="DJ14" t="n">
         <v>28.08</v>
@@ -7428,7 +7428,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="DL14" t="n">
-        <v>4.060000000000009</v>
+        <v>2.339999999999805</v>
       </c>
       <c r="DM14" t="n">
         <v>73.48999999999999</v>
@@ -7437,7 +7437,7 @@
         <v>1.5</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.15</v>
+        <v>0.1199999999999939</v>
       </c>
       <c r="DP14" t="n">
         <v>3.95</v>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6399999999999988</v>
+        <v>0.3599999999999976</v>
       </c>
       <c r="C15" t="n">
         <v>63.7</v>
@@ -7591,7 +7591,7 @@
         <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>5.640000000000001</v>
+        <v>4.960000000000015</v>
       </c>
       <c r="I15" t="n">
         <v>24.77</v>
@@ -7627,7 +7627,7 @@
         <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.100000000000001</v>
+        <v>2.659999999999997</v>
       </c>
       <c r="U15" t="n">
         <v>12.91</v>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.85</v>
+        <v>1.469999999999999</v>
       </c>
       <c r="X15" t="n">
         <v>63.52</v>
@@ -7645,7 +7645,7 @@
         <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.739999999999998</v>
+        <v>3.579999999999995</v>
       </c>
       <c r="AA15" t="n">
         <v>20.48</v>
@@ -7654,7 +7654,7 @@
         <v>10.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.4299999999999962</v>
+        <v>0.0799999999999948</v>
       </c>
       <c r="AD15" t="n">
         <v>32.71</v>
@@ -7672,7 +7672,7 @@
         <v>14.6</v>
       </c>
       <c r="AI15" t="n">
-        <v>8.1700000000003</v>
+        <v>2.580000000000439</v>
       </c>
       <c r="AJ15" t="n">
         <v>1811.08</v>
@@ -7726,7 +7726,7 @@
         <v>19.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.729999999999998</v>
+        <v>0.8699999999999946</v>
       </c>
       <c r="BB15" t="n">
         <v>8.43</v>
@@ -7735,7 +7735,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.92</v>
+        <v>0.329999999999999</v>
       </c>
       <c r="BE15" t="n">
         <v>8.01</v>
@@ -7744,7 +7744,7 @@
         <v>-4.3</v>
       </c>
       <c r="BG15" t="n">
-        <v>3.26</v>
+        <v>0.9400000000000066</v>
       </c>
       <c r="BH15" t="n">
         <v>16.92</v>
@@ -7771,7 +7771,7 @@
         <v>16.1</v>
       </c>
       <c r="BP15" t="n">
-        <v>16.59</v>
+        <v>3.050000000000037</v>
       </c>
       <c r="BQ15" t="n">
         <v>93.69</v>
@@ -7789,7 +7789,7 @@
         <v>12</v>
       </c>
       <c r="BV15" t="n">
-        <v>31.98999999999999</v>
+        <v>25.74999999999999</v>
       </c>
       <c r="BW15" t="n">
         <v>145.89</v>
@@ -7816,7 +7816,7 @@
         <v>11.1</v>
       </c>
       <c r="CE15" t="n">
-        <v>11.91999999999999</v>
+        <v>4.63999999999999</v>
       </c>
       <c r="CF15" t="n">
         <v>51.27</v>
@@ -7861,7 +7861,7 @@
         <v>11.6</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="CU15" t="n">
         <v>43.27</v>
@@ -7888,7 +7888,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="DC15" t="n">
-        <v>6.07</v>
+        <v>4.909999999999993</v>
       </c>
       <c r="DD15" t="n">
         <v>28.46</v>
@@ -7897,7 +7897,7 @@
         <v>10.6</v>
       </c>
       <c r="DF15" t="n">
-        <v>9.359999999999999</v>
+        <v>7.609999999999996</v>
       </c>
       <c r="DG15" t="n">
         <v>41.3</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.650000000000002</v>
+        <v>0.0100000000000065</v>
       </c>
       <c r="C16" t="n">
         <v>81.94</v>
@@ -8069,7 +8069,7 @@
         <v>12.2</v>
       </c>
       <c r="E16" t="n">
-        <v>40.06</v>
+        <v>36.78000000000004</v>
       </c>
       <c r="F16" t="n">
         <v>216.78</v>
@@ -8087,7 +8087,7 @@
         <v>34.1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4500000000000006</v>
+        <v>0.2000000000000006</v>
       </c>
       <c r="L16" t="n">
         <v>18.84</v>
@@ -8105,7 +8105,7 @@
         <v>-32.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.390000000000029</v>
+        <v>1.150000000000049</v>
       </c>
       <c r="R16" t="n">
         <v>169.58</v>
@@ -8123,7 +8123,7 @@
         <v>0.8</v>
       </c>
       <c r="W16" t="n">
-        <v>16.23999999999999</v>
+        <v>8.839999999999991</v>
       </c>
       <c r="X16" t="n">
         <v>80.64</v>
@@ -8141,7 +8141,7 @@
         <v>11.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.18</v>
+        <v>7.51000000000002</v>
       </c>
       <c r="AD16" t="n">
         <v>42.39</v>
@@ -8150,7 +8150,7 @@
         <v>11.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.69</v>
+        <v>0.4899999999999963</v>
       </c>
       <c r="AG16" t="n">
         <v>8.34</v>
@@ -8159,7 +8159,7 @@
         <v>14.1</v>
       </c>
       <c r="AI16" t="n">
-        <v>36.03999999999979</v>
+        <v>20.12999999999817</v>
       </c>
       <c r="AJ16" t="n">
         <v>2316.11</v>
@@ -8168,7 +8168,7 @@
         <v>11.3</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.26</v>
+        <v>2.499999999999996</v>
       </c>
       <c r="AM16" t="n">
         <v>16.05</v>
@@ -8186,7 +8186,7 @@
         <v>11.3</v>
       </c>
       <c r="AR16" t="n">
-        <v>7.590000000000003</v>
+        <v>3.510000000000005</v>
       </c>
       <c r="AS16" t="n">
         <v>46.06</v>
@@ -8195,7 +8195,7 @@
         <v>-4</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.1699999999999977</v>
+        <v>0.1699999999999889</v>
       </c>
       <c r="AV16" t="n">
         <v>15.52</v>
@@ -8204,7 +8204,7 @@
         <v>1.8</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.2999999999999901</v>
+        <v>0.09999999999995887</v>
       </c>
       <c r="AY16" t="n">
         <v>48.93</v>
@@ -8213,7 +8213,7 @@
         <v>16.6</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.200000000000001</v>
+        <v>0.4700000000000031</v>
       </c>
       <c r="BB16" t="n">
         <v>10.92</v>
@@ -8222,7 +8222,7 @@
         <v>9</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.49</v>
+        <v>1.160000000000001</v>
       </c>
       <c r="BE16" t="n">
         <v>9.640000000000001</v>
@@ -8249,7 +8249,7 @@
         <v>41</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.3</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="BN16" t="n">
         <v>9.630000000000001</v>
@@ -8285,7 +8285,7 @@
         <v>18.9</v>
       </c>
       <c r="BY16" t="n">
-        <v>3.86999999999999</v>
+        <v>0.2299999999999538</v>
       </c>
       <c r="BZ16" t="n">
         <v>126.1</v>
@@ -8294,7 +8294,7 @@
         <v>9.5</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.3199999999999985</v>
+        <v>0.1600000000000019</v>
       </c>
       <c r="CC16" t="n">
         <v>21.05</v>
@@ -8312,7 +8312,7 @@
         <v>1.8</v>
       </c>
       <c r="CH16" t="n">
-        <v>4.170000000000002</v>
+        <v>1.270000000000003</v>
       </c>
       <c r="CI16" t="n">
         <v>55.49</v>
@@ -8321,7 +8321,7 @@
         <v>1.3</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.129999999999999</v>
       </c>
       <c r="CL16" t="n">
         <v>95.48</v>
@@ -8339,7 +8339,7 @@
         <v>12.3</v>
       </c>
       <c r="CQ16" t="n">
-        <v>7.210000000000001</v>
+        <v>7.009999999999984</v>
       </c>
       <c r="CR16" t="n">
         <v>37.42</v>
@@ -8348,7 +8348,7 @@
         <v>11.7</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.02999999999999936</v>
+        <v>0.009999999999999783</v>
       </c>
       <c r="CU16" t="n">
         <v>56.05</v>
@@ -8357,7 +8357,7 @@
         <v>12.4</v>
       </c>
       <c r="CW16" t="n">
-        <v>1.889999999999983</v>
+        <v>1.449999999999943</v>
       </c>
       <c r="CX16" t="n">
         <v>99.64</v>
@@ -8366,7 +8366,7 @@
         <v>6.1</v>
       </c>
       <c r="CZ16" t="n">
-        <v>2.460000000000001</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="DA16" t="n">
         <v>11.78</v>
@@ -8393,7 +8393,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="DI16" t="n">
-        <v>1.730000000000002</v>
+        <v>0.2900000000000182</v>
       </c>
       <c r="DJ16" t="n">
         <v>47.73</v>
@@ -8402,7 +8402,7 @@
         <v>7</v>
       </c>
       <c r="DL16" t="n">
-        <v>2.47000000000002</v>
+        <v>0.2700000000000382</v>
       </c>
       <c r="DM16" t="n">
         <v>130.87</v>
@@ -8411,7 +8411,7 @@
         <v>1.3</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.3900000000000001</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="DP16" t="n">
         <v>6.89</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.40000000000001</v>
+        <v>12.86</v>
       </c>
       <c r="C17" t="n">
         <v>100.99</v>
@@ -8565,7 +8565,7 @@
         <v>19.6</v>
       </c>
       <c r="H17" t="n">
-        <v>6.239999999999995</v>
+        <v>0.8799999999999821</v>
       </c>
       <c r="I17" t="n">
         <v>39.11</v>
@@ -8574,7 +8574,7 @@
         <v>12.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.789999999999999</v>
+        <v>2.739999999999996</v>
       </c>
       <c r="L17" t="n">
         <v>23.12</v>
@@ -8583,7 +8583,7 @@
         <v>9.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02</v>
+        <v>1.561251128379126e-17</v>
       </c>
       <c r="O17" t="n">
         <v>0.08</v>
@@ -8592,7 +8592,7 @@
         <v>-29.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.409999999999975</v>
+        <v>0.09999999999985798</v>
       </c>
       <c r="R17" t="n">
         <v>207.86</v>
@@ -8601,7 +8601,7 @@
         <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.699999999999999</v>
+        <v>0.2200000000000073</v>
       </c>
       <c r="U17" t="n">
         <v>19.43</v>
@@ -8610,7 +8610,7 @@
         <v>-1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>15.07000000000001</v>
+        <v>0.6800000000000193</v>
       </c>
       <c r="X17" t="n">
         <v>98.16</v>
@@ -8619,7 +8619,7 @@
         <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.459999999999997</v>
+        <v>0.5799999999999876</v>
       </c>
       <c r="AA17" t="n">
         <v>31.49</v>
@@ -8637,7 +8637,7 @@
         <v>11.3</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.5</v>
+        <v>0.110000000000001</v>
       </c>
       <c r="AG17" t="n">
         <v>10.35</v>
@@ -8646,7 +8646,7 @@
         <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>475.1699999999996</v>
+        <v>363.2600000000026</v>
       </c>
       <c r="AJ17" t="n">
         <v>2838.46</v>
@@ -8664,7 +8664,7 @@
         <v>8.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>23.15000000000001</v>
+        <v>19.94999999999997</v>
       </c>
       <c r="AP17" t="n">
         <v>146.83</v>
@@ -8682,7 +8682,7 @@
         <v>1.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>3.210000000000001</v>
+        <v>2.530000000000024</v>
       </c>
       <c r="AV17" t="n">
         <v>19.45</v>
@@ -8691,7 +8691,7 @@
         <v>3.9</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.7000000000000028</v>
+        <v>6.369904603786836e-14</v>
       </c>
       <c r="AY17" t="n">
         <v>58.9</v>
@@ -8718,7 +8718,7 @@
         <v>-5.1</v>
       </c>
       <c r="BG17" t="n">
-        <v>4.219999999999999</v>
+        <v>0.7999999999999932</v>
       </c>
       <c r="BH17" t="n">
         <v>27.07</v>
@@ -8736,7 +8736,7 @@
         <v>37.6</v>
       </c>
       <c r="BM17" t="n">
-        <v>1.790000000000001</v>
+        <v>1.130000000000001</v>
       </c>
       <c r="BN17" t="n">
         <v>11.73</v>
@@ -8745,7 +8745,7 @@
         <v>20</v>
       </c>
       <c r="BP17" t="n">
-        <v>19.29000000000001</v>
+        <v>6.17000000000005</v>
       </c>
       <c r="BQ17" t="n">
         <v>144.18</v>
@@ -8754,7 +8754,7 @@
         <v>35.6</v>
       </c>
       <c r="BS17" t="n">
-        <v>19.30000000000001</v>
+        <v>12.69999999999997</v>
       </c>
       <c r="BT17" t="n">
         <v>116.42</v>
@@ -8772,7 +8772,7 @@
         <v>18.6</v>
       </c>
       <c r="BY17" t="n">
-        <v>26.38</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="BZ17" t="n">
         <v>155.49</v>
@@ -8790,7 +8790,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CE17" t="n">
-        <v>5.230000000000009</v>
+        <v>0.9499999999999882</v>
       </c>
       <c r="CF17" t="n">
         <v>79.73999999999999</v>
@@ -8799,7 +8799,7 @@
         <v>1.2</v>
       </c>
       <c r="CH17" t="n">
-        <v>11.59</v>
+        <v>2.15999999999999</v>
       </c>
       <c r="CI17" t="n">
         <v>68.08</v>
@@ -8808,7 +8808,7 @@
         <v>-5.9</v>
       </c>
       <c r="CK17" t="n">
-        <v>18.44000000000001</v>
+        <v>17.64000000000001</v>
       </c>
       <c r="CL17" t="n">
         <v>116.2</v>
@@ -8817,7 +8817,7 @@
         <v>5.3</v>
       </c>
       <c r="CN17" t="n">
-        <v>4.710000000000001</v>
+        <v>3.350000000000017</v>
       </c>
       <c r="CO17" t="n">
         <v>28.95</v>
@@ -8835,7 +8835,7 @@
         <v>9.9</v>
       </c>
       <c r="CT17" t="n">
-        <v>1.10000000000001</v>
+        <v>1.010000000000012</v>
       </c>
       <c r="CU17" t="n">
         <v>68.54000000000001</v>
@@ -8844,7 +8844,7 @@
         <v>12.9</v>
       </c>
       <c r="CW17" t="n">
-        <v>21.11000000000001</v>
+        <v>14.21000000000015</v>
       </c>
       <c r="CX17" t="n">
         <v>124.95</v>
@@ -8862,7 +8862,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.840000000000007</v>
+        <v>0.06000000000001288</v>
       </c>
       <c r="DD17" t="n">
         <v>44.67</v>
@@ -8871,7 +8871,7 @@
         <v>16.8</v>
       </c>
       <c r="DF17" t="n">
-        <v>10.23</v>
+        <v>6.069999999999997</v>
       </c>
       <c r="DG17" t="n">
         <v>63.79</v>
@@ -8880,7 +8880,7 @@
         <v>10</v>
       </c>
       <c r="DI17" t="n">
-        <v>10.31</v>
+        <v>5.549999999999969</v>
       </c>
       <c r="DJ17" t="n">
         <v>58.76</v>
@@ -8889,7 +8889,7 @@
         <v>5.1</v>
       </c>
       <c r="DL17" t="n">
-        <v>29.96000000000001</v>
+        <v>26.67999999999987</v>
       </c>
       <c r="DM17" t="n">
         <v>159.6</v>
@@ -8898,7 +8898,7 @@
         <v>-0.9</v>
       </c>
       <c r="DO17" t="n">
-        <v>1.52</v>
+        <v>0.07999999999999957</v>
       </c>
       <c r="DP17" t="n">
         <v>8.109999999999999</v>
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.06</v>
+        <v>0.3099999999999898</v>
       </c>
       <c r="C18" t="n">
         <v>118.56</v>
@@ -9070,7 +9070,7 @@
         <v>11.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03</v>
+        <v>0.009999999999999967</v>
       </c>
       <c r="O18" t="n">
         <v>0.1</v>
@@ -9079,7 +9079,7 @@
         <v>-33</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.13000000000002</v>
+        <v>20.35000000000033</v>
       </c>
       <c r="R18" t="n">
         <v>245.96</v>
@@ -9115,7 +9115,7 @@
         <v>10.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.149999999999999</v>
+        <v>6.869999999999997</v>
       </c>
       <c r="AD18" t="n">
         <v>61.29</v>
@@ -9124,7 +9124,7 @@
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.2200000000000011</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="AG18" t="n">
         <v>12.23</v>
@@ -9133,7 +9133,7 @@
         <v>16.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>452.1600000000003</v>
+        <v>13.03000000000048</v>
       </c>
       <c r="AJ18" t="n">
         <v>3350.3</v>
@@ -9142,7 +9142,7 @@
         <v>10.4</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.5599999999999978</v>
+        <v>0.5199999999999969</v>
       </c>
       <c r="AM18" t="n">
         <v>23.47</v>
@@ -9160,7 +9160,7 @@
         <v>11.9</v>
       </c>
       <c r="AR18" t="n">
-        <v>8.710000000000008</v>
+        <v>0.7900000000000491</v>
       </c>
       <c r="AS18" t="n">
         <v>67.63</v>
@@ -9169,7 +9169,7 @@
         <v>3.8</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.030000000000001</v>
+        <v>0.159999999999993</v>
       </c>
       <c r="AV18" t="n">
         <v>23.05</v>
@@ -9178,7 +9178,7 @@
         <v>5.1</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.370000000000001</v>
+        <v>0.06999999999994022</v>
       </c>
       <c r="AY18" t="n">
         <v>69.44</v>
@@ -9187,7 +9187,7 @@
         <v>13.7</v>
       </c>
       <c r="BA18" t="n">
-        <v>2.07</v>
+        <v>1.990000000000008</v>
       </c>
       <c r="BB18" t="n">
         <v>15.43</v>
@@ -9214,7 +9214,7 @@
         <v>17.8</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1.919999999999995</v>
+        <v>1.119999999999999</v>
       </c>
       <c r="BK18" t="n">
         <v>61.78</v>
@@ -9223,7 +9223,7 @@
         <v>37.3</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.529999999999999</v>
+        <v>0.03999999999999782</v>
       </c>
       <c r="BN18" t="n">
         <v>13.35</v>
@@ -9250,7 +9250,7 @@
         <v>10.4</v>
       </c>
       <c r="BV18" t="n">
-        <v>32.25999999999999</v>
+        <v>21.66000000000006</v>
       </c>
       <c r="BW18" t="n">
         <v>268.04</v>
@@ -9259,7 +9259,7 @@
         <v>17.2</v>
       </c>
       <c r="BY18" t="n">
-        <v>24.69</v>
+        <v>2.179999999999993</v>
       </c>
       <c r="BZ18" t="n">
         <v>184.52</v>
@@ -9268,7 +9268,7 @@
         <v>8</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.5900000000000034</v>
+        <v>0.2699999999999961</v>
       </c>
       <c r="CC18" t="n">
         <v>30.45</v>
@@ -9277,7 +9277,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CE18" t="n">
-        <v>15</v>
+        <v>4.780000000000015</v>
       </c>
       <c r="CF18" t="n">
         <v>91.34</v>
@@ -9286,7 +9286,7 @@
         <v>-6.8</v>
       </c>
       <c r="CH18" t="n">
-        <v>5.829999999999998</v>
+        <v>1.130000000000003</v>
       </c>
       <c r="CI18" t="n">
         <v>79.79000000000001</v>
@@ -9322,7 +9322,7 @@
         <v>11.9</v>
       </c>
       <c r="CT18" t="n">
-        <v>11.72</v>
+        <v>7.489999999999956</v>
       </c>
       <c r="CU18" t="n">
         <v>81.48999999999999</v>
@@ -9331,7 +9331,7 @@
         <v>12.1</v>
       </c>
       <c r="CW18" t="n">
-        <v>21.10999999999999</v>
+        <v>1.889999999999958</v>
       </c>
       <c r="CX18" t="n">
         <v>146.8</v>
@@ -9340,7 +9340,7 @@
         <v>6.8</v>
       </c>
       <c r="CZ18" t="n">
-        <v>2.189999999999998</v>
+        <v>0.360000000000001</v>
       </c>
       <c r="DA18" t="n">
         <v>16.64</v>
@@ -9349,7 +9349,7 @@
         <v>3.2</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.2999999999999901</v>
+        <v>0.1799999999999643</v>
       </c>
       <c r="DD18" t="n">
         <v>57.7</v>
@@ -9358,7 +9358,7 @@
         <v>26.7</v>
       </c>
       <c r="DF18" t="n">
-        <v>10.10000000000001</v>
+        <v>0.9100000000000108</v>
       </c>
       <c r="DG18" t="n">
         <v>74.76000000000001</v>
@@ -9385,7 +9385,7 @@
         <v>-0.5</v>
       </c>
       <c r="DO18" t="n">
-        <v>1.390000000000001</v>
+        <v>0.2600000000000011</v>
       </c>
       <c r="DP18" t="n">
         <v>10.95</v>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.19999999999999</v>
+        <v>13.58000000000001</v>
       </c>
       <c r="C19" t="n">
         <v>136.68</v>
@@ -9539,7 +9539,7 @@
         <v>21.4</v>
       </c>
       <c r="H19" t="n">
-        <v>4.82</v>
+        <v>0.6599999999999759</v>
       </c>
       <c r="I19" t="n">
         <v>52.44</v>
@@ -9548,7 +9548,7 @@
         <v>8.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.359999999999999</v>
+        <v>1.679999999999991</v>
       </c>
       <c r="L19" t="n">
         <v>31.33</v>
@@ -9557,7 +9557,7 @@
         <v>7.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01000000000000001</v>
+        <v>1.214306433183765e-17</v>
       </c>
       <c r="O19" t="n">
         <v>0.13</v>
@@ -9584,7 +9584,7 @@
         <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>1.409999999999989</v>
+        <v>0.1500000000000088</v>
       </c>
       <c r="X19" t="n">
         <v>133.41</v>
@@ -9611,7 +9611,7 @@
         <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.129999999999999</v>
+        <v>0.01999999999999891</v>
       </c>
       <c r="AG19" t="n">
         <v>14.4</v>
@@ -9620,7 +9620,7 @@
         <v>17.8</v>
       </c>
       <c r="AI19" t="n">
-        <v>37.33999999999969</v>
+        <v>11.27999999999873</v>
       </c>
       <c r="AJ19" t="n">
         <v>3859.77</v>
@@ -9629,7 +9629,7 @@
         <v>10.7</v>
       </c>
       <c r="AL19" t="n">
-        <v>3.180000000000003</v>
+        <v>1.000000000000013</v>
       </c>
       <c r="AM19" t="n">
         <v>27.04</v>
@@ -9638,7 +9638,7 @@
         <v>7.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.420000000000019</v>
+        <v>0.1000000000000965</v>
       </c>
       <c r="AP19" t="n">
         <v>200.45</v>
@@ -9647,7 +9647,7 @@
         <v>12.2</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.189999999999982</v>
+        <v>0.4199999999999431</v>
       </c>
       <c r="AS19" t="n">
         <v>77.65000000000001</v>
@@ -9656,7 +9656,7 @@
         <v>5.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.629999999999999</v>
+        <v>0.470000000000006</v>
       </c>
       <c r="AV19" t="n">
         <v>26.62</v>
@@ -9665,7 +9665,7 @@
         <v>6.6</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.2200000000000113</v>
+        <v>4.068967385251199e-14</v>
       </c>
       <c r="AY19" t="n">
         <v>80.43000000000001</v>
@@ -9692,7 +9692,7 @@
         <v>-5.4</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.830000000000002</v>
+        <v>3.66999999999999</v>
       </c>
       <c r="BH19" t="n">
         <v>37.54</v>
@@ -9701,7 +9701,7 @@
         <v>19.1</v>
       </c>
       <c r="BJ19" t="n">
-        <v>1.810000000000004</v>
+        <v>0.09000000000000807</v>
       </c>
       <c r="BK19" t="n">
         <v>70.48999999999999</v>
@@ -9710,7 +9710,7 @@
         <v>30.4</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.380000000000001</v>
+        <v>0.3000000000000054</v>
       </c>
       <c r="BN19" t="n">
         <v>15.32</v>
@@ -9719,7 +9719,7 @@
         <v>17</v>
       </c>
       <c r="BP19" t="n">
-        <v>1.239999999999988</v>
+        <v>0.4799999999999971</v>
       </c>
       <c r="BQ19" t="n">
         <v>191.39</v>
@@ -9746,7 +9746,7 @@
         <v>18.1</v>
       </c>
       <c r="BY19" t="n">
-        <v>2.809999999999999</v>
+        <v>0.6300000000000061</v>
       </c>
       <c r="BZ19" t="n">
         <v>209.7</v>
@@ -9755,7 +9755,7 @@
         <v>7.2</v>
       </c>
       <c r="CB19" t="n">
-        <v>4.119999999999997</v>
+        <v>2.239999999999994</v>
       </c>
       <c r="CC19" t="n">
         <v>36.1</v>
@@ -9764,7 +9764,7 @@
         <v>8.5</v>
       </c>
       <c r="CE19" t="n">
-        <v>14.86</v>
+        <v>5.090000000000009</v>
       </c>
       <c r="CF19" t="n">
         <v>104.63</v>
@@ -9773,7 +9773,7 @@
         <v>-7.4</v>
       </c>
       <c r="CH19" t="n">
-        <v>10.66000000000001</v>
+        <v>3.70000000000001</v>
       </c>
       <c r="CI19" t="n">
         <v>88.16</v>
@@ -9782,7 +9782,7 @@
         <v>-1.8</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.8499999999999979</v>
+        <v>0.2100000000000328</v>
       </c>
       <c r="CL19" t="n">
         <v>158.5</v>
@@ -9791,7 +9791,7 @@
         <v>7.4</v>
       </c>
       <c r="CN19" t="n">
-        <v>4.619999999999997</v>
+        <v>4.259999999999998</v>
       </c>
       <c r="CO19" t="n">
         <v>39.55</v>
@@ -9836,7 +9836,7 @@
         <v>6.8</v>
       </c>
       <c r="DC19" t="n">
-        <v>4.290000000000006</v>
+        <v>3.150000000000059</v>
       </c>
       <c r="DD19" t="n">
         <v>60.3</v>
@@ -9854,7 +9854,7 @@
         <v>10.7</v>
       </c>
       <c r="DI19" t="n">
-        <v>9.579999999999998</v>
+        <v>6.219999999999963</v>
       </c>
       <c r="DJ19" t="n">
         <v>80.98999999999999</v>
@@ -9872,7 +9872,7 @@
         <v>3.1</v>
       </c>
       <c r="DO19" t="n">
-        <v>1.219999999999999</v>
+        <v>0.6999999999999968</v>
       </c>
       <c r="DP19" t="n">
         <v>11.94</v>
@@ -10017,7 +10017,7 @@
         <v>13.6</v>
       </c>
       <c r="E20" t="n">
-        <v>3.100000000000016</v>
+        <v>0.6400000000000157</v>
       </c>
       <c r="F20" t="n">
         <v>429.32</v>
@@ -10026,7 +10026,7 @@
         <v>22.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.719999999999999</v>
+        <v>0.02000000000001712</v>
       </c>
       <c r="I20" t="n">
         <v>59.78</v>
@@ -10044,7 +10044,7 @@
         <v>10.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.009999999999999979</v>
+        <v>0.009999999999999955</v>
       </c>
       <c r="O20" t="n">
         <v>0.14</v>
@@ -10062,7 +10062,7 @@
         <v>2.4</v>
       </c>
       <c r="T20" t="n">
-        <v>3.109999999999999</v>
+        <v>3.030000000000015</v>
       </c>
       <c r="U20" t="n">
         <v>30.23</v>
@@ -10071,7 +10071,7 @@
         <v>3.2</v>
       </c>
       <c r="W20" t="n">
-        <v>13.23000000000002</v>
+        <v>10.74000000000001</v>
       </c>
       <c r="X20" t="n">
         <v>151.81</v>
@@ -10080,7 +10080,7 @@
         <v>12.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5500000000000043</v>
+        <v>0.07000000000001447</v>
       </c>
       <c r="AA20" t="n">
         <v>48.36</v>
@@ -10089,7 +10089,7 @@
         <v>10.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.179999999999993</v>
+        <v>7.779999999999959</v>
       </c>
       <c r="AD20" t="n">
         <v>80.23</v>
@@ -10098,7 +10098,7 @@
         <v>12.8</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.2000000000000011</v>
+        <v>0.07000000000000209</v>
       </c>
       <c r="AG20" t="n">
         <v>16.17</v>
@@ -10107,7 +10107,7 @@
         <v>14.9</v>
       </c>
       <c r="AI20" t="n">
-        <v>466.6699999999996</v>
+        <v>330.3400000000013</v>
       </c>
       <c r="AJ20" t="n">
         <v>4404.37</v>
@@ -10125,7 +10125,7 @@
         <v>8.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>24.27000000000001</v>
+        <v>20.56999999999981</v>
       </c>
       <c r="AP20" t="n">
         <v>228.74</v>
@@ -10134,7 +10134,7 @@
         <v>12.4</v>
       </c>
       <c r="AR20" t="n">
-        <v>9.370000000000005</v>
+        <v>2.990000000000041</v>
       </c>
       <c r="AS20" t="n">
         <v>87.38</v>
@@ -10143,7 +10143,7 @@
         <v>1.9</v>
       </c>
       <c r="AU20" t="n">
-        <v>3.140000000000001</v>
+        <v>0.620000000000005</v>
       </c>
       <c r="AV20" t="n">
         <v>30.84</v>
@@ -10152,7 +10152,7 @@
         <v>7.8</v>
       </c>
       <c r="AX20" t="n">
-        <v>9.649999999999991</v>
+        <v>8.769999999999946</v>
       </c>
       <c r="AY20" t="n">
         <v>91.37</v>
@@ -10188,7 +10188,7 @@
         <v>19.9</v>
       </c>
       <c r="BJ20" t="n">
-        <v>9.769999999999996</v>
+        <v>5.969999999999972</v>
       </c>
       <c r="BK20" t="n">
         <v>79.92</v>
@@ -10197,7 +10197,7 @@
         <v>23.1</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.91</v>
+        <v>0.4299999999999937</v>
       </c>
       <c r="BN20" t="n">
         <v>17.17</v>
@@ -10206,7 +10206,7 @@
         <v>14.4</v>
       </c>
       <c r="BP20" t="n">
-        <v>17.61000000000001</v>
+        <v>14.93000000000002</v>
       </c>
       <c r="BQ20" t="n">
         <v>214.93</v>
@@ -10215,7 +10215,7 @@
         <v>28.7</v>
       </c>
       <c r="BS20" t="n">
-        <v>17.84</v>
+        <v>17.80000000000012</v>
       </c>
       <c r="BT20" t="n">
         <v>181.71</v>
@@ -10224,7 +10224,7 @@
         <v>11.2</v>
       </c>
       <c r="BV20" t="n">
-        <v>33.36000000000001</v>
+        <v>8.399999999999968</v>
       </c>
       <c r="BW20" t="n">
         <v>354.43</v>
@@ -10233,7 +10233,7 @@
         <v>15.9</v>
       </c>
       <c r="BY20" t="n">
-        <v>24.44999999999999</v>
+        <v>15.38999999999998</v>
       </c>
       <c r="BZ20" t="n">
         <v>241.28</v>
@@ -10251,7 +10251,7 @@
         <v>10.8</v>
       </c>
       <c r="CE20" t="n">
-        <v>13.81999999999999</v>
+        <v>3.639999999999972</v>
       </c>
       <c r="CF20" t="n">
         <v>123.34</v>
@@ -10260,7 +10260,7 @@
         <v>-3.6</v>
       </c>
       <c r="CH20" t="n">
-        <v>11.08999999999999</v>
+        <v>0.4299999999999784</v>
       </c>
       <c r="CI20" t="n">
         <v>99.78</v>
@@ -10269,7 +10269,7 @@
         <v>-6.1</v>
       </c>
       <c r="CK20" t="n">
-        <v>19.10000000000002</v>
+        <v>17.29999999999995</v>
       </c>
       <c r="CL20" t="n">
         <v>180.98</v>
@@ -10287,7 +10287,7 @@
         <v>10.2</v>
       </c>
       <c r="CQ20" t="n">
-        <v>7.049999999999997</v>
+        <v>5.649999999999991</v>
       </c>
       <c r="CR20" t="n">
         <v>69.47</v>
@@ -10296,7 +10296,7 @@
         <v>10.6</v>
       </c>
       <c r="CT20" t="n">
-        <v>10.20999999999999</v>
+        <v>7.20999999999999</v>
       </c>
       <c r="CU20" t="n">
         <v>106.73</v>
@@ -10314,7 +10314,7 @@
         <v>6.4</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.2399999999999949</v>
+        <v>0.03999999999998491</v>
       </c>
       <c r="DA20" t="n">
         <v>22.03</v>
@@ -10332,7 +10332,7 @@
         <v>4.5</v>
       </c>
       <c r="DF20" t="n">
-        <v>10.87</v>
+        <v>7.43000000000008</v>
       </c>
       <c r="DG20" t="n">
         <v>98.08</v>
@@ -10359,7 +10359,7 @@
         <v>7.2</v>
       </c>
       <c r="DO20" t="n">
-        <v>11.24</v>
+        <v>6.620000000000004</v>
       </c>
       <c r="DP20" t="n">
         <v>13.64</v>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.93000000000001</v>
+        <v>5.330000000000009</v>
       </c>
       <c r="C21" t="n">
         <v>175.75</v>
@@ -10504,7 +10504,7 @@
         <v>14.91</v>
       </c>
       <c r="E21" t="n">
-        <v>44.69</v>
+        <v>37.20999999999994</v>
       </c>
       <c r="F21" t="n">
         <v>480.33</v>
@@ -10522,7 +10522,7 @@
         <v>12.04</v>
       </c>
       <c r="K21" t="n">
-        <v>3.68</v>
+        <v>1.769999999999996</v>
       </c>
       <c r="L21" t="n">
         <v>40.43</v>
@@ -10531,7 +10531,7 @@
         <v>7.12</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01000000000000001</v>
+        <v>3.122502256758253e-17</v>
       </c>
       <c r="O21" t="n">
         <v>0.15</v>
@@ -10540,7 +10540,7 @@
         <v>-29.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.769999999999982</v>
+        <v>1.369999999999941</v>
       </c>
       <c r="R21" t="n">
         <v>362.06</v>
@@ -10567,7 +10567,7 @@
         <v>15.95</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.280000000000001</v>
+        <v>4.279999999999958</v>
       </c>
       <c r="AA21" t="n">
         <v>56.75</v>
@@ -10576,7 +10576,7 @@
         <v>14.17</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.030000000000001</v>
+        <v>0.05000000000002558</v>
       </c>
       <c r="AD21" t="n">
         <v>88.93000000000001</v>
@@ -10585,7 +10585,7 @@
         <v>12.15</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.719999999999999</v>
+        <v>1.309999999999992</v>
       </c>
       <c r="AG21" t="n">
         <v>18.65</v>
@@ -10603,7 +10603,7 @@
         <v>11.43</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.539999999999999</v>
+        <v>1.060000000000009</v>
       </c>
       <c r="AM21" t="n">
         <v>34.94</v>
@@ -10648,7 +10648,7 @@
         <v>12.46</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.1900000000000048</v>
+        <v>0.1100000000000208</v>
       </c>
       <c r="BB21" t="n">
         <v>22.56</v>
@@ -10657,7 +10657,7 @@
         <v>7.03</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.8800000000000039</v>
+        <v>0.6000000000000161</v>
       </c>
       <c r="BE21" t="n">
         <v>17.24</v>
@@ -10729,7 +10729,7 @@
         <v>7.34</v>
       </c>
       <c r="CB21" t="n">
-        <v>4.480000000000004</v>
+        <v>1.08</v>
       </c>
       <c r="CC21" t="n">
         <v>46.98</v>
@@ -10747,7 +10747,7 @@
         <v>-2.93</v>
       </c>
       <c r="CH21" t="n">
-        <v>9.340000000000003</v>
+        <v>8.050000000000068</v>
       </c>
       <c r="CI21" t="n">
         <v>112.79</v>
@@ -10765,7 +10765,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.25</v>
+        <v>0.0599999999999952</v>
       </c>
       <c r="CO21" t="n">
         <v>50.1</v>
@@ -10792,7 +10792,7 @@
         <v>12.63</v>
       </c>
       <c r="CW21" t="n">
-        <v>1.109999999999992</v>
+        <v>0.1899999999999193</v>
       </c>
       <c r="CX21" t="n">
         <v>215.93</v>
@@ -10801,7 +10801,7 @@
         <v>7.16</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.1600000000000028</v>
+        <v>0.0200000000000129</v>
       </c>
       <c r="DA21" t="n">
         <v>25.11</v>
@@ -10810,7 +10810,7 @@
         <v>8.59</v>
       </c>
       <c r="DC21" t="n">
-        <v>4.489999999999995</v>
+        <v>1.949999999999989</v>
       </c>
       <c r="DD21" t="n">
         <v>76.5</v>
@@ -10819,7 +10819,7 @@
         <v>13.18</v>
       </c>
       <c r="DF21" t="n">
-        <v>9.909999999999997</v>
+        <v>0.7599999999999572</v>
       </c>
       <c r="DG21" t="n">
         <v>111.2</v>
@@ -10828,7 +10828,7 @@
         <v>11.04</v>
       </c>
       <c r="DI21" t="n">
-        <v>8.659999999999997</v>
+        <v>5.779999999999987</v>
       </c>
       <c r="DJ21" t="n">
         <v>101.62</v>
@@ -10837,7 +10837,7 @@
         <v>4.49</v>
       </c>
       <c r="DL21" t="n">
-        <v>3.69999999999996</v>
+        <v>2.099999999999809</v>
       </c>
       <c r="DM21" t="n">
         <v>298.54</v>
@@ -10989,7 +10989,7 @@
         <v>13.46</v>
       </c>
       <c r="E22" t="n">
-        <v>149.37</v>
+        <v>23.78000000000005</v>
       </c>
       <c r="F22" t="n">
         <v>537.55</v>
@@ -11012,7 +11012,7 @@
         <v>9.32</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03</v>
+        <v>0.0199999999999999</v>
       </c>
       <c r="O22" t="n">
         <v>0.16</v>
@@ -11028,7 +11028,7 @@
         <v>2.47</v>
       </c>
       <c r="T22" t="n">
-        <v>156.9</v>
+        <v>156.54</v>
       </c>
       <c r="U22" t="n">
         <v>38.06</v>
@@ -11037,7 +11037,7 @@
         <v>6.92</v>
       </c>
       <c r="W22" t="n">
-        <v>259.34</v>
+        <v>228.3000000000001</v>
       </c>
       <c r="X22" t="n">
         <v>190.92</v>
@@ -11046,7 +11046,7 @@
         <v>12.99</v>
       </c>
       <c r="Z22" t="n">
-        <v>29.07999999999999</v>
+        <v>10.30000000000003</v>
       </c>
       <c r="AA22" t="n">
         <v>60.69</v>
@@ -11055,7 +11055,7 @@
         <v>10.36</v>
       </c>
       <c r="AC22" t="n">
-        <v>41.54</v>
+        <v>17.39999999999997</v>
       </c>
       <c r="AD22" t="n">
         <v>97.88</v>
@@ -11064,7 +11064,7 @@
         <v>12.08</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.920000000000002</v>
+        <v>1.850000000000015</v>
       </c>
       <c r="AG22" t="n">
         <v>20.85</v>
@@ -11073,7 +11073,7 @@
         <v>16.9</v>
       </c>
       <c r="AI22" t="n">
-        <v>313.7200000000002</v>
+        <v>274.759999999999</v>
       </c>
       <c r="AJ22" t="n">
         <v>5487.15</v>
@@ -11082,7 +11082,7 @@
         <v>11.52</v>
       </c>
       <c r="AL22" t="n">
-        <v>23.17</v>
+        <v>15.20999999999997</v>
       </c>
       <c r="AM22" t="n">
         <v>38.49</v>
@@ -11091,7 +11091,7 @@
         <v>6.29</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.05999999999998</v>
+        <v>8.780000000000021</v>
       </c>
       <c r="AP22" t="n">
         <v>284.64</v>
@@ -11100,7 +11100,7 @@
         <v>12.32</v>
       </c>
       <c r="AR22" t="n">
-        <v>210.67</v>
+        <v>209.87</v>
       </c>
       <c r="AS22" t="n">
         <v>104.99</v>
@@ -11109,7 +11109,7 @@
         <v>0.27</v>
       </c>
       <c r="AU22" t="n">
-        <v>1.290000000000003</v>
+        <v>0.2900000000000189</v>
       </c>
       <c r="AV22" t="n">
         <v>38.33</v>
@@ -11118,7 +11118,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="AX22" t="n">
-        <v>5.26999999999998</v>
+        <v>0.9899999999999078</v>
       </c>
       <c r="AY22" t="n">
         <v>112.36</v>
@@ -11127,7 +11127,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="BA22" t="n">
-        <v>27.6</v>
+        <v>26.95999999999996</v>
       </c>
       <c r="BB22" t="n">
         <v>25.19</v>
@@ -11145,7 +11145,7 @@
         <v>-3.57</v>
       </c>
       <c r="BG22" t="n">
-        <v>34.69</v>
+        <v>31.01</v>
       </c>
       <c r="BH22" t="n">
         <v>53.69</v>
@@ -11154,7 +11154,7 @@
         <v>23.03</v>
       </c>
       <c r="BJ22" t="n">
-        <v>25.31</v>
+        <v>25.19</v>
       </c>
       <c r="BK22" t="n">
         <v>103.11</v>
@@ -11163,7 +11163,7 @@
         <v>22.04</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.349999999999998</v>
+        <v>0.1499999999999942</v>
       </c>
       <c r="BN22" t="n">
         <v>21.85</v>
@@ -11172,7 +11172,7 @@
         <v>14.26</v>
       </c>
       <c r="BP22" t="n">
-        <v>12.66</v>
+        <v>2.440000000000023</v>
       </c>
       <c r="BQ22" t="n">
         <v>268.6</v>
@@ -11188,7 +11188,7 @@
         <v>12.13</v>
       </c>
       <c r="BV22" t="n">
-        <v>19.85000000000002</v>
+        <v>12.53000000000006</v>
       </c>
       <c r="BW22" t="n">
         <v>441.62</v>
@@ -11197,7 +11197,7 @@
         <v>18</v>
       </c>
       <c r="BY22" t="n">
-        <v>240.5299999999999</v>
+        <v>228.8499999999997</v>
       </c>
       <c r="BZ22" t="n">
         <v>293.46</v>
@@ -11213,7 +11213,7 @@
         <v>12.31</v>
       </c>
       <c r="CE22" t="n">
-        <v>4.97999999999999</v>
+        <v>2.259999999999949</v>
       </c>
       <c r="CF22" t="n">
         <v>152.14</v>
@@ -11222,7 +11222,7 @@
         <v>-2.61</v>
       </c>
       <c r="CH22" t="n">
-        <v>16.13</v>
+        <v>6.789999999999996</v>
       </c>
       <c r="CI22" t="n">
         <v>125.74</v>
@@ -11231,7 +11231,7 @@
         <v>-0.77</v>
       </c>
       <c r="CK22" t="n">
-        <v>83.85000000000002</v>
+        <v>77.89000000000021</v>
       </c>
       <c r="CL22" t="n">
         <v>224.06</v>
@@ -11240,7 +11240,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CN22" t="n">
-        <v>2.649999999999999</v>
+        <v>2.220000000000014</v>
       </c>
       <c r="CO22" t="n">
         <v>55.39</v>
@@ -11249,7 +11249,7 @@
         <v>10.5</v>
       </c>
       <c r="CQ22" t="n">
-        <v>12.93999999999999</v>
+        <v>11.85999999999995</v>
       </c>
       <c r="CR22" t="n">
         <v>86.16</v>
@@ -11267,7 +11267,7 @@
         <v>12.27</v>
       </c>
       <c r="CW22" t="n">
-        <v>76.21000000000001</v>
+        <v>73.15000000000018</v>
       </c>
       <c r="CX22" t="n">
         <v>239.91</v>
@@ -11276,7 +11276,7 @@
         <v>7.01</v>
       </c>
       <c r="CZ22" t="n">
-        <v>2.399999999999999</v>
+        <v>2.039999999999967</v>
       </c>
       <c r="DA22" t="n">
         <v>27.7</v>
@@ -11292,7 +11292,7 @@
         <v>13.17</v>
       </c>
       <c r="DF22" t="n">
-        <v>6.600000000000012</v>
+        <v>5.840000000000055</v>
       </c>
       <c r="DG22" t="n">
         <v>120.61</v>
@@ -11301,7 +11301,7 @@
         <v>9.6</v>
       </c>
       <c r="DI22" t="n">
-        <v>79.78</v>
+        <v>49.46000000000004</v>
       </c>
       <c r="DJ22" t="n">
         <v>111.07</v>
@@ -11310,7 +11310,7 @@
         <v>4.88</v>
       </c>
       <c r="DL22" t="n">
-        <v>230.62</v>
+        <v>218.2200000000003</v>
       </c>
       <c r="DM22" t="n">
         <v>332.06</v>
